--- a/dataset/cleanData/dataYear/data_2018.xlsx
+++ b/dataset/cleanData/dataYear/data_2018.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -570,8 +566,8 @@
           <t>2301</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>43462</v>
+      <c r="B2" t="n">
+        <v>20181228</v>
       </c>
       <c r="C2" t="n">
         <v>157984918</v>
@@ -649,8 +645,8 @@
           <t>2305</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>43462</v>
+      <c r="B3" t="n">
+        <v>20181228</v>
       </c>
       <c r="C3" t="n">
         <v>1331591</v>
@@ -728,8 +724,8 @@
           <t>2324</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>43462</v>
+      <c r="B4" t="n">
+        <v>20181228</v>
       </c>
       <c r="C4" t="n">
         <v>362745250</v>
@@ -807,8 +803,8 @@
           <t>2331</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>43462</v>
+      <c r="B5" t="n">
+        <v>20181228</v>
       </c>
       <c r="C5" t="n">
         <v>16896467</v>
@@ -886,8 +882,8 @@
           <t>2352</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>43462</v>
+      <c r="B6" t="n">
+        <v>20181228</v>
       </c>
       <c r="C6" t="n">
         <v>66193691</v>
@@ -965,8 +961,8 @@
           <t>2353</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>43462</v>
+      <c r="B7" t="n">
+        <v>20181228</v>
       </c>
       <c r="C7" t="n">
         <v>123120995</v>
@@ -1044,8 +1040,8 @@
           <t>2356</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>43462</v>
+      <c r="B8" t="n">
+        <v>20181228</v>
       </c>
       <c r="C8" t="n">
         <v>167904434</v>
@@ -1123,8 +1119,8 @@
           <t>2357</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>43462</v>
+      <c r="B9" t="n">
+        <v>20181228</v>
       </c>
       <c r="C9" t="n">
         <v>254924246</v>
@@ -1202,8 +1198,8 @@
           <t>2362</t>
         </is>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>43462</v>
+      <c r="B10" t="n">
+        <v>20181228</v>
       </c>
       <c r="C10" t="n">
         <v>25591179</v>
@@ -1281,8 +1277,8 @@
           <t>2364</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>43462</v>
+      <c r="B11" t="n">
+        <v>20181228</v>
       </c>
       <c r="C11" t="n">
         <v>507724</v>
@@ -1360,8 +1356,8 @@
           <t>2365</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>43462</v>
+      <c r="B12" t="n">
+        <v>20181228</v>
       </c>
       <c r="C12" t="n">
         <v>1885276</v>
@@ -1439,8 +1435,8 @@
           <t>2376</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>43462</v>
+      <c r="B13" t="n">
+        <v>20181228</v>
       </c>
       <c r="C13" t="n">
         <v>28959419</v>
@@ -1518,8 +1514,8 @@
           <t>2377</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>43462</v>
+      <c r="B14" t="n">
+        <v>20181228</v>
       </c>
       <c r="C14" t="n">
         <v>49356897</v>
@@ -1597,8 +1593,8 @@
           <t>2380</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>43462</v>
+      <c r="B15" t="n">
+        <v>20181228</v>
       </c>
       <c r="C15" t="n">
         <v>1642248</v>
@@ -1676,8 +1672,8 @@
           <t>2382</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>43462</v>
+      <c r="B16" t="n">
+        <v>20181228</v>
       </c>
       <c r="C16" t="n">
         <v>600750831</v>
@@ -1755,8 +1751,8 @@
           <t>2387</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>43462</v>
+      <c r="B17" t="n">
+        <v>20181228</v>
       </c>
       <c r="C17" t="n">
         <v>9169271</v>
@@ -1834,8 +1830,8 @@
           <t>2395</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>43462</v>
+      <c r="B18" t="n">
+        <v>20181228</v>
       </c>
       <c r="C18" t="n">
         <v>25366573</v>
@@ -1913,8 +1909,8 @@
           <t>2397</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>43462</v>
+      <c r="B19" t="n">
+        <v>20181228</v>
       </c>
       <c r="C19" t="n">
         <v>3422103</v>
@@ -1992,8 +1988,8 @@
           <t>2399</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>43462</v>
+      <c r="B20" t="n">
+        <v>20181228</v>
       </c>
       <c r="C20" t="n">
         <v>2021038</v>
@@ -2071,8 +2067,8 @@
           <t>2405</t>
         </is>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>43462</v>
+      <c r="B21" t="n">
+        <v>20181228</v>
       </c>
       <c r="C21" t="n">
         <v>3376686</v>
@@ -2150,8 +2146,8 @@
           <t>2417</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>43462</v>
+      <c r="B22" t="n">
+        <v>20181228</v>
       </c>
       <c r="C22" t="n">
         <v>2714217</v>
@@ -2229,8 +2225,8 @@
           <t>2425</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>43462</v>
+      <c r="B23" t="n">
+        <v>20181228</v>
       </c>
       <c r="C23" t="n">
         <v>1728661</v>
@@ -2308,8 +2304,8 @@
           <t>2465</t>
         </is>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>43462</v>
+      <c r="B24" t="n">
+        <v>20181228</v>
       </c>
       <c r="C24" t="n">
         <v>1003594</v>
@@ -2387,8 +2383,8 @@
           <t>2495</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>43462</v>
+      <c r="B25" t="n">
+        <v>20181228</v>
       </c>
       <c r="C25" t="n">
         <v>4221579</v>
@@ -2466,8 +2462,8 @@
           <t>3002</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>43462</v>
+      <c r="B26" t="n">
+        <v>20181228</v>
       </c>
       <c r="C26" t="n">
         <v>1480405</v>
@@ -2545,8 +2541,8 @@
           <t>3005</t>
         </is>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>43462</v>
+      <c r="B27" t="n">
+        <v>20181228</v>
       </c>
       <c r="C27" t="n">
         <v>16956255</v>
@@ -2624,8 +2620,8 @@
           <t>3013</t>
         </is>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>43462</v>
+      <c r="B28" t="n">
+        <v>20181228</v>
       </c>
       <c r="C28" t="n">
         <v>3485627</v>
@@ -2703,8 +2699,8 @@
           <t>3017</t>
         </is>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>43462</v>
+      <c r="B29" t="n">
+        <v>20181228</v>
       </c>
       <c r="C29" t="n">
         <v>21571861</v>
@@ -2782,8 +2778,8 @@
           <t>3022</t>
         </is>
       </c>
-      <c r="B30" s="2" t="n">
-        <v>43462</v>
+      <c r="B30" t="n">
+        <v>20181228</v>
       </c>
       <c r="C30" t="n">
         <v>6929198</v>
@@ -2861,8 +2857,8 @@
           <t>3046</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n">
-        <v>43462</v>
+      <c r="B31" t="n">
+        <v>20181228</v>
       </c>
       <c r="C31" t="n">
         <v>989336</v>
@@ -2940,8 +2936,8 @@
           <t>3057</t>
         </is>
       </c>
-      <c r="B32" s="2" t="n">
-        <v>43462</v>
+      <c r="B32" t="n">
+        <v>20181228</v>
       </c>
       <c r="C32" t="n">
         <v>1710527</v>
@@ -3019,8 +3015,8 @@
           <t>3060</t>
         </is>
       </c>
-      <c r="B33" s="2" t="n">
-        <v>43462</v>
+      <c r="B33" t="n">
+        <v>20181228</v>
       </c>
       <c r="C33" t="n">
         <v>3877939</v>
@@ -3098,8 +3094,8 @@
           <t>3231</t>
         </is>
       </c>
-      <c r="B34" s="2" t="n">
-        <v>43462</v>
+      <c r="B34" t="n">
+        <v>20181228</v>
       </c>
       <c r="C34" t="n">
         <v>275427144</v>
@@ -3177,8 +3173,8 @@
           <t>3416</t>
         </is>
       </c>
-      <c r="B35" s="2" t="n">
-        <v>43462</v>
+      <c r="B35" t="n">
+        <v>20181228</v>
       </c>
       <c r="C35" t="n">
         <v>1970893</v>
@@ -3256,8 +3252,8 @@
           <t>3494</t>
         </is>
       </c>
-      <c r="B36" s="2" t="n">
-        <v>43462</v>
+      <c r="B36" t="n">
+        <v>20181228</v>
       </c>
       <c r="C36" t="n">
         <v>1068381</v>
@@ -3335,8 +3331,8 @@
           <t>3515</t>
         </is>
       </c>
-      <c r="B37" s="2" t="n">
-        <v>43462</v>
+      <c r="B37" t="n">
+        <v>20181228</v>
       </c>
       <c r="C37" t="n">
         <v>8664042</v>
@@ -3414,8 +3410,8 @@
           <t>3652</t>
         </is>
       </c>
-      <c r="B38" s="2" t="n">
-        <v>43462</v>
+      <c r="B38" t="n">
+        <v>20181228</v>
       </c>
       <c r="C38" t="n">
         <v>1079605</v>
@@ -3493,8 +3489,8 @@
           <t>3701</t>
         </is>
       </c>
-      <c r="B39" s="2" t="n">
-        <v>43462</v>
+      <c r="B39" t="n">
+        <v>20181228</v>
       </c>
       <c r="C39" t="n">
         <v>4563764</v>
@@ -3572,8 +3568,8 @@
           <t>3706</t>
         </is>
       </c>
-      <c r="B40" s="2" t="n">
-        <v>43462</v>
+      <c r="B40" t="n">
+        <v>20181228</v>
       </c>
       <c r="C40" t="n">
         <v>19033549</v>
@@ -3651,8 +3647,8 @@
           <t>3712</t>
         </is>
       </c>
-      <c r="B41" s="2" t="n">
-        <v>43462</v>
+      <c r="B41" t="n">
+        <v>20181228</v>
       </c>
       <c r="C41" t="n">
         <v>6902925</v>
@@ -3730,8 +3726,8 @@
           <t>4916</t>
         </is>
       </c>
-      <c r="B42" s="2" t="n">
-        <v>43462</v>
+      <c r="B42" t="n">
+        <v>20181228</v>
       </c>
       <c r="C42" t="n">
         <v>6245671</v>
@@ -3809,8 +3805,8 @@
           <t>4938</t>
         </is>
       </c>
-      <c r="B43" s="2" t="n">
-        <v>43462</v>
+      <c r="B43" t="n">
+        <v>20181228</v>
       </c>
       <c r="C43" t="n">
         <v>482805097</v>
@@ -3888,8 +3884,8 @@
           <t>5215</t>
         </is>
       </c>
-      <c r="B44" s="2" t="n">
-        <v>43462</v>
+      <c r="B44" t="n">
+        <v>20181228</v>
       </c>
       <c r="C44" t="n">
         <v>1850050</v>
@@ -3967,8 +3963,8 @@
           <t>5258</t>
         </is>
       </c>
-      <c r="B45" s="2" t="n">
-        <v>43462</v>
+      <c r="B45" t="n">
+        <v>20181228</v>
       </c>
       <c r="C45" t="n">
         <v>2446095</v>
@@ -4046,8 +4042,8 @@
           <t>6117</t>
         </is>
       </c>
-      <c r="B46" s="2" t="n">
-        <v>43462</v>
+      <c r="B46" t="n">
+        <v>20181228</v>
       </c>
       <c r="C46" t="n">
         <v>1895458</v>
@@ -4125,8 +4121,8 @@
           <t>6128</t>
         </is>
       </c>
-      <c r="B47" s="2" t="n">
-        <v>43462</v>
+      <c r="B47" t="n">
+        <v>20181228</v>
       </c>
       <c r="C47" t="n">
         <v>2840819</v>
@@ -4204,8 +4200,8 @@
           <t>6166</t>
         </is>
       </c>
-      <c r="B48" s="2" t="n">
-        <v>43462</v>
+      <c r="B48" t="n">
+        <v>20181228</v>
       </c>
       <c r="C48" t="n">
         <v>6199027</v>
@@ -4283,8 +4279,8 @@
           <t>6206</t>
         </is>
       </c>
-      <c r="B49" s="2" t="n">
-        <v>43462</v>
+      <c r="B49" t="n">
+        <v>20181228</v>
       </c>
       <c r="C49" t="n">
         <v>4066365</v>
@@ -4362,8 +4358,8 @@
           <t>6230</t>
         </is>
       </c>
-      <c r="B50" s="2" t="n">
-        <v>43462</v>
+      <c r="B50" t="n">
+        <v>20181228</v>
       </c>
       <c r="C50" t="n">
         <v>5253442</v>
@@ -4441,8 +4437,8 @@
           <t>6235</t>
         </is>
       </c>
-      <c r="B51" s="2" t="n">
-        <v>43462</v>
+      <c r="B51" t="n">
+        <v>20181228</v>
       </c>
       <c r="C51" t="n">
         <v>2669642</v>
@@ -4520,8 +4516,8 @@
           <t>6277</t>
         </is>
       </c>
-      <c r="B52" s="2" t="n">
-        <v>43462</v>
+      <c r="B52" t="n">
+        <v>20181228</v>
       </c>
       <c r="C52" t="n">
         <v>4638222</v>
@@ -4599,8 +4595,8 @@
           <t>6414</t>
         </is>
       </c>
-      <c r="B53" s="2" t="n">
-        <v>43462</v>
+      <c r="B53" t="n">
+        <v>20181228</v>
       </c>
       <c r="C53" t="n">
         <v>48125111</v>
@@ -4678,8 +4674,8 @@
           <t>6579</t>
         </is>
       </c>
-      <c r="B54" s="2" t="n">
-        <v>43462</v>
+      <c r="B54" t="n">
+        <v>20181228</v>
       </c>
       <c r="C54" t="n">
         <v>5345112</v>
@@ -4757,8 +4753,8 @@
           <t>6591</t>
         </is>
       </c>
-      <c r="B55" s="2" t="n">
-        <v>43462</v>
+      <c r="B55" t="n">
+        <v>20181228</v>
       </c>
       <c r="C55" t="n">
         <v>1136718</v>
@@ -4836,8 +4832,8 @@
           <t>6669</t>
         </is>
       </c>
-      <c r="B56" s="2" t="n">
-        <v>43462</v>
+      <c r="B56" t="n">
+        <v>20181228</v>
       </c>
       <c r="C56" t="n">
         <v>27583370</v>
@@ -4915,8 +4911,8 @@
           <t>8114</t>
         </is>
       </c>
-      <c r="B57" s="2" t="n">
-        <v>43462</v>
+      <c r="B57" t="n">
+        <v>20181228</v>
       </c>
       <c r="C57" t="n">
         <v>5610392</v>
@@ -4994,8 +4990,8 @@
           <t>8163</t>
         </is>
       </c>
-      <c r="B58" s="2" t="n">
-        <v>43462</v>
+      <c r="B58" t="n">
+        <v>20181228</v>
       </c>
       <c r="C58" t="n">
         <v>12741445</v>
@@ -5073,8 +5069,8 @@
           <t>8210</t>
         </is>
       </c>
-      <c r="B59" s="2" t="n">
-        <v>43462</v>
+      <c r="B59" t="n">
+        <v>20181228</v>
       </c>
       <c r="C59" t="n">
         <v>3717311</v>
@@ -5152,8 +5148,8 @@
           <t>9912</t>
         </is>
       </c>
-      <c r="B60" s="2" t="n">
-        <v>43462</v>
+      <c r="B60" t="n">
+        <v>20181228</v>
       </c>
       <c r="C60" t="n">
         <v>410979</v>

--- a/dataset/cleanData/dataYear/data_2018.xlsx
+++ b/dataset/cleanData/dataYear/data_2018.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/dataset/cleanData/dataYear/data_2018.xlsx
+++ b/dataset/cleanData/dataYear/data_2018.xlsx
@@ -642,378 +642,378 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2305</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>20181228</v>
       </c>
       <c r="C3" t="n">
-        <v>1331591</v>
+        <v>275427144</v>
       </c>
       <c r="D3" t="n">
-        <v>1279713</v>
+        <v>63675431</v>
       </c>
       <c r="E3" t="n">
-        <v>2611304</v>
+        <v>339102575</v>
       </c>
       <c r="F3" t="n">
-        <v>265916</v>
+        <v>239878889</v>
       </c>
       <c r="G3" t="n">
-        <v>112906</v>
+        <v>25692104</v>
       </c>
       <c r="H3" t="n">
-        <v>378822</v>
+        <v>265570993</v>
       </c>
       <c r="I3" t="n">
-        <v>2232482</v>
+        <v>73531582</v>
       </c>
       <c r="J3" t="n">
-        <v>2611304</v>
+        <v>339102575</v>
       </c>
       <c r="K3" t="n">
-        <v>2056608</v>
+        <v>28421220</v>
       </c>
       <c r="L3" t="n">
-        <v>2056608</v>
+        <v>28421220</v>
       </c>
       <c r="M3" t="n">
-        <v>-49781</v>
+        <v>-533236</v>
       </c>
       <c r="N3" t="n">
-        <v>17417</v>
+        <v>9658838</v>
       </c>
       <c r="O3" t="n">
-        <v>-102.45</v>
+        <v>67.03</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.18</v>
+        <v>0.82</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.98</v>
+        <v>1.09</v>
       </c>
       <c r="R3" t="n">
-        <v>33.44</v>
+        <v>4.22</v>
       </c>
       <c r="S3" t="n">
-        <v>-21.99</v>
+        <v>1.21</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2324</t>
+          <t>2305</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>20181228</v>
       </c>
       <c r="C4" t="n">
-        <v>362745250</v>
+        <v>1331591</v>
       </c>
       <c r="D4" t="n">
-        <v>37049573</v>
+        <v>1279713</v>
       </c>
       <c r="E4" t="n">
-        <v>399794823</v>
+        <v>2611304</v>
       </c>
       <c r="F4" t="n">
-        <v>274207898</v>
+        <v>265916</v>
       </c>
       <c r="G4" t="n">
-        <v>12425077</v>
+        <v>112906</v>
       </c>
       <c r="H4" t="n">
-        <v>286632975</v>
+        <v>378822</v>
       </c>
       <c r="I4" t="n">
-        <v>113161848</v>
+        <v>2232482</v>
       </c>
       <c r="J4" t="n">
-        <v>399794823</v>
+        <v>2611304</v>
       </c>
       <c r="K4" t="n">
-        <v>44071466</v>
+        <v>2056608</v>
       </c>
       <c r="L4" t="n">
-        <v>44071466</v>
+        <v>2056608</v>
       </c>
       <c r="M4" t="n">
-        <v>-881247</v>
+        <v>-49781</v>
       </c>
       <c r="N4" t="n">
-        <v>11789585</v>
+        <v>17417</v>
       </c>
       <c r="O4" t="n">
-        <v>55.72</v>
+        <v>-102.45</v>
       </c>
       <c r="P4" t="n">
-        <v>0.99</v>
+        <v>-2.18</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.22</v>
+        <v>2.98</v>
       </c>
       <c r="R4" t="n">
-        <v>3.16</v>
+        <v>33.44</v>
       </c>
       <c r="S4" t="n">
-        <v>0.96</v>
+        <v>-21.99</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2331</t>
+          <t>2324</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>20181228</v>
       </c>
       <c r="C5" t="n">
-        <v>16896467</v>
+        <v>362745250</v>
       </c>
       <c r="D5" t="n">
-        <v>6603916</v>
+        <v>37049573</v>
       </c>
       <c r="E5" t="n">
-        <v>23500383</v>
+        <v>399794823</v>
       </c>
       <c r="F5" t="n">
-        <v>11845410</v>
+        <v>274207898</v>
       </c>
       <c r="G5" t="n">
-        <v>483609</v>
+        <v>12425077</v>
       </c>
       <c r="H5" t="n">
-        <v>12329019</v>
+        <v>286632975</v>
       </c>
       <c r="I5" t="n">
-        <v>11171364</v>
+        <v>113161848</v>
       </c>
       <c r="J5" t="n">
-        <v>23500383</v>
+        <v>399794823</v>
       </c>
       <c r="K5" t="n">
-        <v>5574030</v>
+        <v>44071466</v>
       </c>
       <c r="L5" t="n">
-        <v>5574030</v>
+        <v>44071466</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-881247</v>
       </c>
       <c r="N5" t="n">
-        <v>29300</v>
+        <v>11789585</v>
       </c>
       <c r="O5" t="n">
-        <v>-90.18000000000001</v>
+        <v>55.72</v>
       </c>
       <c r="P5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.09</v>
+        <v>1.22</v>
       </c>
       <c r="R5" t="n">
-        <v>7.92</v>
+        <v>3.16</v>
       </c>
       <c r="S5" t="n">
-        <v>-1.02</v>
+        <v>0.96</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2352</t>
+          <t>2331</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>20181228</v>
       </c>
       <c r="C6" t="n">
-        <v>66193691</v>
+        <v>16896467</v>
       </c>
       <c r="D6" t="n">
-        <v>53613592</v>
+        <v>6603916</v>
       </c>
       <c r="E6" t="n">
-        <v>119807283</v>
+        <v>23500383</v>
       </c>
       <c r="F6" t="n">
-        <v>61335721</v>
+        <v>11845410</v>
       </c>
       <c r="G6" t="n">
-        <v>18611916</v>
+        <v>483609</v>
       </c>
       <c r="H6" t="n">
-        <v>79947637</v>
+        <v>12329019</v>
       </c>
       <c r="I6" t="n">
-        <v>39859646</v>
+        <v>11171364</v>
       </c>
       <c r="J6" t="n">
-        <v>119807283</v>
+        <v>23500383</v>
       </c>
       <c r="K6" t="n">
-        <v>19667820</v>
+        <v>5574030</v>
       </c>
       <c r="L6" t="n">
-        <v>19667820</v>
+        <v>5574030</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>5613111</v>
+        <v>29300</v>
       </c>
       <c r="O6" t="n">
-        <v>-21.32</v>
+        <v>-90.18000000000001</v>
       </c>
       <c r="P6" t="n">
-        <v>2.86</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.6</v>
+        <v>0.09</v>
       </c>
       <c r="R6" t="n">
-        <v>12.35</v>
+        <v>7.92</v>
       </c>
       <c r="S6" t="n">
-        <v>2.94</v>
+        <v>-1.02</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2353</t>
+          <t>2352</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>20181228</v>
       </c>
       <c r="C7" t="n">
-        <v>123120995</v>
+        <v>66193691</v>
       </c>
       <c r="D7" t="n">
-        <v>30868415</v>
+        <v>53613592</v>
       </c>
       <c r="E7" t="n">
-        <v>153989410</v>
+        <v>119807283</v>
       </c>
       <c r="F7" t="n">
-        <v>86816928</v>
+        <v>61335721</v>
       </c>
       <c r="G7" t="n">
-        <v>8186196</v>
+        <v>18611916</v>
       </c>
       <c r="H7" t="n">
-        <v>95003124</v>
+        <v>79947637</v>
       </c>
       <c r="I7" t="n">
-        <v>58986286</v>
+        <v>39859646</v>
       </c>
       <c r="J7" t="n">
-        <v>153989410</v>
+        <v>119807283</v>
       </c>
       <c r="K7" t="n">
-        <v>30749338</v>
+        <v>19667820</v>
       </c>
       <c r="L7" t="n">
-        <v>30749338</v>
+        <v>19667820</v>
       </c>
       <c r="M7" t="n">
-        <v>-2914856</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>4252380</v>
+        <v>5613111</v>
       </c>
       <c r="O7" t="n">
-        <v>3.76</v>
+        <v>-21.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.2</v>
+        <v>2.86</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.76</v>
+        <v>3.6</v>
       </c>
       <c r="R7" t="n">
-        <v>10.66</v>
+        <v>12.35</v>
       </c>
       <c r="S7" t="n">
-        <v>1.54</v>
+        <v>2.94</v>
       </c>
       <c r="T7" t="n">
         <v>3</v>
@@ -1022,83 +1022,83 @@
         <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
         <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>2353</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>20181228</v>
       </c>
       <c r="C8" t="n">
-        <v>167904434</v>
+        <v>123120995</v>
       </c>
       <c r="D8" t="n">
-        <v>37899488</v>
+        <v>30868415</v>
       </c>
       <c r="E8" t="n">
-        <v>205803922</v>
+        <v>153989410</v>
       </c>
       <c r="F8" t="n">
-        <v>140692415</v>
+        <v>86816928</v>
       </c>
       <c r="G8" t="n">
-        <v>7389990</v>
+        <v>8186196</v>
       </c>
       <c r="H8" t="n">
-        <v>148082405</v>
+        <v>95003124</v>
       </c>
       <c r="I8" t="n">
-        <v>57721517</v>
+        <v>58986286</v>
       </c>
       <c r="J8" t="n">
-        <v>205803922</v>
+        <v>153989410</v>
       </c>
       <c r="K8" t="n">
-        <v>35874751</v>
+        <v>30749338</v>
       </c>
       <c r="L8" t="n">
-        <v>35874751</v>
+        <v>30749338</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>-2914856</v>
       </c>
       <c r="N8" t="n">
-        <v>8133262</v>
+        <v>4252380</v>
       </c>
       <c r="O8" t="n">
-        <v>22.64</v>
+        <v>3.76</v>
       </c>
       <c r="P8" t="n">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.6</v>
+        <v>1.76</v>
       </c>
       <c r="R8" t="n">
-        <v>4.71</v>
+        <v>10.66</v>
       </c>
       <c r="S8" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="T8" t="n">
         <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>1</v>
@@ -1116,311 +1116,311 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2357</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>20181228</v>
       </c>
       <c r="C9" t="n">
-        <v>254924246</v>
+        <v>167904434</v>
       </c>
       <c r="D9" t="n">
-        <v>87241630</v>
+        <v>37899488</v>
       </c>
       <c r="E9" t="n">
-        <v>342165876</v>
+        <v>205803922</v>
       </c>
       <c r="F9" t="n">
-        <v>162689625</v>
+        <v>140692415</v>
       </c>
       <c r="G9" t="n">
-        <v>11784327</v>
+        <v>7389990</v>
       </c>
       <c r="H9" t="n">
-        <v>174473952</v>
+        <v>148082405</v>
       </c>
       <c r="I9" t="n">
-        <v>167691924</v>
+        <v>57721517</v>
       </c>
       <c r="J9" t="n">
-        <v>342165876</v>
+        <v>205803922</v>
       </c>
       <c r="K9" t="n">
-        <v>7427603</v>
+        <v>35874751</v>
       </c>
       <c r="L9" t="n">
-        <v>7427603</v>
+        <v>35874751</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>20985717</v>
+        <v>8133262</v>
       </c>
       <c r="O9" t="n">
-        <v>-67.13</v>
+        <v>22.64</v>
       </c>
       <c r="P9" t="n">
-        <v>1.49</v>
+        <v>1.05</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.93</v>
+        <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>14.69</v>
+        <v>4.71</v>
       </c>
       <c r="S9" t="n">
-        <v>4.79</v>
+        <v>1.48</v>
       </c>
       <c r="T9" t="n">
         <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
         <v>1</v>
       </c>
       <c r="W9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2362</t>
+          <t>2357</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>20181228</v>
       </c>
       <c r="C10" t="n">
-        <v>25591179</v>
+        <v>254924246</v>
       </c>
       <c r="D10" t="n">
-        <v>86868678</v>
+        <v>87241630</v>
       </c>
       <c r="E10" t="n">
-        <v>112459857</v>
+        <v>342165876</v>
       </c>
       <c r="F10" t="n">
-        <v>19063643</v>
+        <v>162689625</v>
       </c>
       <c r="G10" t="n">
-        <v>51539084</v>
+        <v>11784327</v>
       </c>
       <c r="H10" t="n">
-        <v>70602727</v>
+        <v>174473952</v>
       </c>
       <c r="I10" t="n">
-        <v>41857130</v>
+        <v>167691924</v>
       </c>
       <c r="J10" t="n">
-        <v>112459857</v>
+        <v>342165876</v>
       </c>
       <c r="K10" t="n">
-        <v>6797630</v>
+        <v>7427603</v>
       </c>
       <c r="L10" t="n">
-        <v>6797630</v>
+        <v>7427603</v>
       </c>
       <c r="M10" t="n">
-        <v>-1283228</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>2355675</v>
+        <v>20985717</v>
       </c>
       <c r="O10" t="n">
-        <v>102.09</v>
+        <v>-67.13</v>
       </c>
       <c r="P10" t="n">
-        <v>7.36</v>
+        <v>1.49</v>
       </c>
       <c r="Q10" t="n">
-        <v>11.9</v>
+        <v>5.93</v>
       </c>
       <c r="R10" t="n">
-        <v>26.67</v>
+        <v>14.69</v>
       </c>
       <c r="S10" t="n">
-        <v>7.41</v>
+        <v>4.79</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2364</t>
+          <t>2362</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>20181228</v>
       </c>
       <c r="C11" t="n">
-        <v>507724</v>
+        <v>25591179</v>
       </c>
       <c r="D11" t="n">
-        <v>621658</v>
+        <v>86868678</v>
       </c>
       <c r="E11" t="n">
-        <v>1129382</v>
+        <v>112459857</v>
       </c>
       <c r="F11" t="n">
-        <v>784758</v>
+        <v>19063643</v>
       </c>
       <c r="G11" t="n">
-        <v>14044</v>
+        <v>51539084</v>
       </c>
       <c r="H11" t="n">
-        <v>798802</v>
+        <v>70602727</v>
       </c>
       <c r="I11" t="n">
-        <v>330580</v>
+        <v>41857130</v>
       </c>
       <c r="J11" t="n">
-        <v>1129382</v>
+        <v>112459857</v>
       </c>
       <c r="K11" t="n">
-        <v>1989314</v>
+        <v>6797630</v>
       </c>
       <c r="L11" t="n">
-        <v>1989398</v>
+        <v>6797630</v>
       </c>
       <c r="M11" t="n">
-        <v>-202059</v>
+        <v>-1283228</v>
       </c>
       <c r="N11" t="n">
-        <v>-84963</v>
+        <v>2355675</v>
       </c>
       <c r="O11" t="n">
-        <v>55.69</v>
+        <v>102.09</v>
       </c>
       <c r="P11" t="n">
-        <v>-9.24</v>
+        <v>7.36</v>
       </c>
       <c r="Q11" t="n">
-        <v>-9.24</v>
+        <v>11.9</v>
       </c>
       <c r="R11" t="n">
-        <v>25.46</v>
+        <v>26.67</v>
       </c>
       <c r="S11" t="n">
-        <v>-4.94</v>
+        <v>7.41</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X11" t="n">
         <v>2</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2365</t>
+          <t>2364</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>20181228</v>
       </c>
       <c r="C12" t="n">
-        <v>1885276</v>
+        <v>507724</v>
       </c>
       <c r="D12" t="n">
-        <v>2779561</v>
+        <v>621658</v>
       </c>
       <c r="E12" t="n">
-        <v>4664837</v>
+        <v>1129382</v>
       </c>
       <c r="F12" t="n">
-        <v>1043730</v>
+        <v>784758</v>
       </c>
       <c r="G12" t="n">
-        <v>452296</v>
+        <v>14044</v>
       </c>
       <c r="H12" t="n">
-        <v>1496026</v>
+        <v>798802</v>
       </c>
       <c r="I12" t="n">
-        <v>3168811</v>
+        <v>330580</v>
       </c>
       <c r="J12" t="n">
-        <v>4664837</v>
+        <v>1129382</v>
       </c>
       <c r="K12" t="n">
-        <v>2345385</v>
+        <v>1989314</v>
       </c>
       <c r="L12" t="n">
-        <v>2345385</v>
+        <v>1989398</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>-202059</v>
       </c>
       <c r="N12" t="n">
-        <v>120258</v>
+        <v>-84963</v>
       </c>
       <c r="O12" t="n">
-        <v>125.22</v>
+        <v>55.69</v>
       </c>
       <c r="P12" t="n">
-        <v>4.71</v>
+        <v>-9.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>5.95</v>
+        <v>-9.24</v>
       </c>
       <c r="R12" t="n">
-        <v>22.2</v>
+        <v>25.46</v>
       </c>
       <c r="S12" t="n">
-        <v>-2.05</v>
+        <v>-4.94</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>2</v>
@@ -1432,68 +1432,68 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2376</t>
+          <t>2365</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>20181228</v>
       </c>
       <c r="C13" t="n">
-        <v>28959419</v>
+        <v>1885276</v>
       </c>
       <c r="D13" t="n">
-        <v>6775176</v>
+        <v>2779561</v>
       </c>
       <c r="E13" t="n">
-        <v>35734595</v>
+        <v>4664837</v>
       </c>
       <c r="F13" t="n">
-        <v>10955638</v>
+        <v>1043730</v>
       </c>
       <c r="G13" t="n">
-        <v>610291</v>
+        <v>452296</v>
       </c>
       <c r="H13" t="n">
-        <v>11565929</v>
+        <v>1496026</v>
       </c>
       <c r="I13" t="n">
-        <v>24168666</v>
+        <v>3168811</v>
       </c>
       <c r="J13" t="n">
-        <v>35734595</v>
+        <v>4664837</v>
       </c>
       <c r="K13" t="n">
-        <v>6356889</v>
+        <v>2345385</v>
       </c>
       <c r="L13" t="n">
-        <v>6356889</v>
+        <v>2345385</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2952771</v>
+        <v>120258</v>
       </c>
       <c r="O13" t="n">
-        <v>-8.01</v>
+        <v>125.22</v>
       </c>
       <c r="P13" t="n">
-        <v>4.1</v>
+        <v>4.71</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.85</v>
+        <v>5.95</v>
       </c>
       <c r="R13" t="n">
-        <v>16.62</v>
+        <v>22.2</v>
       </c>
       <c r="S13" t="n">
-        <v>3.74</v>
+        <v>-2.05</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
         <v>2</v>
@@ -1502,77 +1502,77 @@
         <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2377</t>
+          <t>2376</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>20181228</v>
       </c>
       <c r="C14" t="n">
-        <v>49356897</v>
+        <v>28959419</v>
       </c>
       <c r="D14" t="n">
-        <v>5817276</v>
+        <v>6775176</v>
       </c>
       <c r="E14" t="n">
-        <v>55174173</v>
+        <v>35734595</v>
       </c>
       <c r="F14" t="n">
-        <v>24765061</v>
+        <v>10955638</v>
       </c>
       <c r="G14" t="n">
-        <v>463251</v>
+        <v>610291</v>
       </c>
       <c r="H14" t="n">
-        <v>25228312</v>
+        <v>11565929</v>
       </c>
       <c r="I14" t="n">
-        <v>29945861</v>
+        <v>24168666</v>
       </c>
       <c r="J14" t="n">
-        <v>55174173</v>
+        <v>35734595</v>
       </c>
       <c r="K14" t="n">
-        <v>8448562</v>
+        <v>6356889</v>
       </c>
       <c r="L14" t="n">
-        <v>8448562</v>
+        <v>6356889</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>7151134</v>
+        <v>2952771</v>
       </c>
       <c r="O14" t="n">
-        <v>22.35</v>
+        <v>-8.01</v>
       </c>
       <c r="P14" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>6.03</v>
+        <v>4.85</v>
       </c>
       <c r="R14" t="n">
-        <v>13.61</v>
+        <v>16.62</v>
       </c>
       <c r="S14" t="n">
-        <v>5.65</v>
+        <v>3.74</v>
       </c>
       <c r="T14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>2</v>
@@ -1590,226 +1590,226 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2380</t>
+          <t>2377</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>20181228</v>
       </c>
       <c r="C15" t="n">
-        <v>1642248</v>
+        <v>49356897</v>
       </c>
       <c r="D15" t="n">
-        <v>1237648</v>
+        <v>5817276</v>
       </c>
       <c r="E15" t="n">
-        <v>2879896</v>
+        <v>55174173</v>
       </c>
       <c r="F15" t="n">
-        <v>1058429</v>
+        <v>24765061</v>
       </c>
       <c r="G15" t="n">
-        <v>160605</v>
+        <v>463251</v>
       </c>
       <c r="H15" t="n">
-        <v>1219034</v>
+        <v>25228312</v>
       </c>
       <c r="I15" t="n">
-        <v>1660862</v>
+        <v>29945861</v>
       </c>
       <c r="J15" t="n">
-        <v>2879896</v>
+        <v>55174173</v>
       </c>
       <c r="K15" t="n">
-        <v>2082209</v>
+        <v>8448562</v>
       </c>
       <c r="L15" t="n">
-        <v>2082209</v>
+        <v>8448562</v>
       </c>
       <c r="M15" t="n">
-        <v>-8548</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-420049</v>
+        <v>7151134</v>
       </c>
       <c r="O15" t="n">
-        <v>33.08</v>
+        <v>22.35</v>
       </c>
       <c r="P15" t="n">
-        <v>-20.05</v>
+        <v>5.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>-19.75</v>
+        <v>6.03</v>
       </c>
       <c r="R15" t="n">
-        <v>24.23</v>
+        <v>13.61</v>
       </c>
       <c r="S15" t="n">
-        <v>-20.52</v>
+        <v>5.65</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U15" t="n">
         <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2380</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>20181228</v>
       </c>
       <c r="C16" t="n">
-        <v>600750831</v>
+        <v>1642248</v>
       </c>
       <c r="D16" t="n">
-        <v>58716351</v>
+        <v>1237648</v>
       </c>
       <c r="E16" t="n">
-        <v>659467182</v>
+        <v>2879896</v>
       </c>
       <c r="F16" t="n">
-        <v>498127585</v>
+        <v>1058429</v>
       </c>
       <c r="G16" t="n">
-        <v>20112501</v>
+        <v>160605</v>
       </c>
       <c r="H16" t="n">
-        <v>518240086</v>
+        <v>1219034</v>
       </c>
       <c r="I16" t="n">
-        <v>141227096</v>
+        <v>1660862</v>
       </c>
       <c r="J16" t="n">
-        <v>659467182</v>
+        <v>2879896</v>
       </c>
       <c r="K16" t="n">
-        <v>38626274</v>
+        <v>2082209</v>
       </c>
       <c r="L16" t="n">
-        <v>38626274</v>
+        <v>2082209</v>
       </c>
       <c r="M16" t="n">
-        <v>-333094</v>
+        <v>-8548</v>
       </c>
       <c r="N16" t="n">
-        <v>19176409</v>
+        <v>-420049</v>
       </c>
       <c r="O16" t="n">
-        <v>5.63</v>
+        <v>33.08</v>
       </c>
       <c r="P16" t="n">
-        <v>1.49</v>
+        <v>-20.05</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.87</v>
+        <v>-19.75</v>
       </c>
       <c r="R16" t="n">
-        <v>4.27</v>
+        <v>24.23</v>
       </c>
       <c r="S16" t="n">
-        <v>1.39</v>
+        <v>-20.52</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2387</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>20181228</v>
       </c>
       <c r="C17" t="n">
-        <v>9169271</v>
+        <v>600750831</v>
       </c>
       <c r="D17" t="n">
-        <v>3705297</v>
+        <v>58716351</v>
       </c>
       <c r="E17" t="n">
-        <v>12874568</v>
+        <v>659467182</v>
       </c>
       <c r="F17" t="n">
-        <v>5244041</v>
+        <v>498127585</v>
       </c>
       <c r="G17" t="n">
-        <v>192326</v>
+        <v>20112501</v>
       </c>
       <c r="H17" t="n">
-        <v>5436367</v>
+        <v>518240086</v>
       </c>
       <c r="I17" t="n">
-        <v>7438201</v>
+        <v>141227096</v>
       </c>
       <c r="J17" t="n">
-        <v>12874568</v>
+        <v>659467182</v>
       </c>
       <c r="K17" t="n">
-        <v>1962980</v>
+        <v>38626274</v>
       </c>
       <c r="L17" t="n">
-        <v>1962980</v>
+        <v>38626274</v>
       </c>
       <c r="M17" t="n">
-        <v>-99511</v>
+        <v>-333094</v>
       </c>
       <c r="N17" t="n">
-        <v>338187</v>
+        <v>19176409</v>
       </c>
       <c r="O17" t="n">
-        <v>-32.84</v>
+        <v>5.63</v>
       </c>
       <c r="P17" t="n">
-        <v>1.21</v>
+        <v>1.49</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.24</v>
+        <v>1.87</v>
       </c>
       <c r="R17" t="n">
-        <v>11.82</v>
+        <v>4.27</v>
       </c>
       <c r="S17" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>1</v>
@@ -1827,147 +1827,147 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2395</t>
+          <t>2387</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>20181228</v>
       </c>
       <c r="C18" t="n">
-        <v>25366573</v>
+        <v>9169271</v>
       </c>
       <c r="D18" t="n">
-        <v>18573388</v>
+        <v>3705297</v>
       </c>
       <c r="E18" t="n">
-        <v>43939961</v>
+        <v>12874568</v>
       </c>
       <c r="F18" t="n">
-        <v>12146590</v>
+        <v>5244041</v>
       </c>
       <c r="G18" t="n">
-        <v>2249896</v>
+        <v>192326</v>
       </c>
       <c r="H18" t="n">
-        <v>14396486</v>
+        <v>5436367</v>
       </c>
       <c r="I18" t="n">
-        <v>29543475</v>
+        <v>7438201</v>
       </c>
       <c r="J18" t="n">
-        <v>43939961</v>
+        <v>12874568</v>
       </c>
       <c r="K18" t="n">
-        <v>6982275</v>
+        <v>1962980</v>
       </c>
       <c r="L18" t="n">
-        <v>6986955</v>
+        <v>1962980</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>-99511</v>
       </c>
       <c r="N18" t="n">
-        <v>7986715</v>
+        <v>338187</v>
       </c>
       <c r="O18" t="n">
-        <v>2.6</v>
+        <v>-32.84</v>
       </c>
       <c r="P18" t="n">
-        <v>12.95</v>
+        <v>1.21</v>
       </c>
       <c r="Q18" t="n">
-        <v>16.39</v>
+        <v>3.24</v>
       </c>
       <c r="R18" t="n">
-        <v>38.3</v>
+        <v>11.82</v>
       </c>
       <c r="S18" t="n">
-        <v>15.31</v>
+        <v>1.36</v>
       </c>
       <c r="T18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2397</t>
+          <t>2395</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>20181228</v>
       </c>
       <c r="C19" t="n">
-        <v>3422103</v>
+        <v>25366573</v>
       </c>
       <c r="D19" t="n">
-        <v>1300044</v>
+        <v>18573388</v>
       </c>
       <c r="E19" t="n">
-        <v>4722147</v>
+        <v>43939961</v>
       </c>
       <c r="F19" t="n">
-        <v>1389652</v>
+        <v>12146590</v>
       </c>
       <c r="G19" t="n">
-        <v>115706</v>
+        <v>2249896</v>
       </c>
       <c r="H19" t="n">
-        <v>1505358</v>
+        <v>14396486</v>
       </c>
       <c r="I19" t="n">
-        <v>3216789</v>
+        <v>29543475</v>
       </c>
       <c r="J19" t="n">
-        <v>4722147</v>
+        <v>43939961</v>
       </c>
       <c r="K19" t="n">
-        <v>1146889</v>
+        <v>6982275</v>
       </c>
       <c r="L19" t="n">
-        <v>1146889</v>
+        <v>6986955</v>
       </c>
       <c r="M19" t="n">
-        <v>-12909</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>790170</v>
+        <v>7986715</v>
       </c>
       <c r="O19" t="n">
-        <v>44.7</v>
+        <v>2.6</v>
       </c>
       <c r="P19" t="n">
-        <v>11.62</v>
+        <v>12.95</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.16</v>
+        <v>16.39</v>
       </c>
       <c r="R19" t="n">
-        <v>29.57</v>
+        <v>38.3</v>
       </c>
       <c r="S19" t="n">
-        <v>15</v>
+        <v>15.31</v>
       </c>
       <c r="T19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>3</v>
@@ -1976,7 +1976,7 @@
         <v>3</v>
       </c>
       <c r="X19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y19" t="n">
         <v>3</v>
@@ -1985,147 +1985,147 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2399</t>
+          <t>2397</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>20181228</v>
       </c>
       <c r="C20" t="n">
-        <v>2021038</v>
+        <v>3422103</v>
       </c>
       <c r="D20" t="n">
-        <v>1010139</v>
+        <v>1300044</v>
       </c>
       <c r="E20" t="n">
-        <v>3031177</v>
+        <v>4722147</v>
       </c>
       <c r="F20" t="n">
-        <v>673278</v>
+        <v>1389652</v>
       </c>
       <c r="G20" t="n">
-        <v>73853</v>
+        <v>115706</v>
       </c>
       <c r="H20" t="n">
-        <v>747131</v>
+        <v>1505358</v>
       </c>
       <c r="I20" t="n">
-        <v>2284046</v>
+        <v>3216789</v>
       </c>
       <c r="J20" t="n">
-        <v>3031177</v>
+        <v>4722147</v>
       </c>
       <c r="K20" t="n">
-        <v>1781000</v>
+        <v>1146889</v>
       </c>
       <c r="L20" t="n">
-        <v>1781000</v>
+        <v>1146889</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-12909</v>
       </c>
       <c r="N20" t="n">
-        <v>-199178</v>
+        <v>790170</v>
       </c>
       <c r="O20" t="n">
-        <v>-281.54</v>
+        <v>44.7</v>
       </c>
       <c r="P20" t="n">
-        <v>-6.27</v>
+        <v>11.62</v>
       </c>
       <c r="Q20" t="n">
-        <v>-6.55</v>
+        <v>15.16</v>
       </c>
       <c r="R20" t="n">
-        <v>9.52</v>
+        <v>29.57</v>
       </c>
       <c r="S20" t="n">
-        <v>-2.12</v>
+        <v>15</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2405</t>
+          <t>2399</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>20181228</v>
       </c>
       <c r="C21" t="n">
-        <v>3376686</v>
+        <v>2021038</v>
       </c>
       <c r="D21" t="n">
-        <v>719857</v>
+        <v>1010139</v>
       </c>
       <c r="E21" t="n">
-        <v>4096543</v>
+        <v>3031177</v>
       </c>
       <c r="F21" t="n">
-        <v>752623</v>
+        <v>673278</v>
       </c>
       <c r="G21" t="n">
-        <v>12102</v>
+        <v>73853</v>
       </c>
       <c r="H21" t="n">
-        <v>764725</v>
+        <v>747131</v>
       </c>
       <c r="I21" t="n">
-        <v>3331818</v>
+        <v>2284046</v>
       </c>
       <c r="J21" t="n">
-        <v>4096543</v>
+        <v>3031177</v>
       </c>
       <c r="K21" t="n">
-        <v>3434273</v>
+        <v>1781000</v>
       </c>
       <c r="L21" t="n">
-        <v>3434273</v>
+        <v>1781000</v>
       </c>
       <c r="M21" t="n">
-        <v>-33403</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>-174761</v>
+        <v>-199178</v>
       </c>
       <c r="O21" t="n">
-        <v>9.720000000000001</v>
+        <v>-281.54</v>
       </c>
       <c r="P21" t="n">
-        <v>-3.23</v>
+        <v>-6.27</v>
       </c>
       <c r="Q21" t="n">
-        <v>-4.16</v>
+        <v>-6.55</v>
       </c>
       <c r="R21" t="n">
-        <v>14.64</v>
+        <v>9.52</v>
       </c>
       <c r="S21" t="n">
-        <v>-4.11</v>
+        <v>-2.12</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2143,141 +2143,141 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2417</t>
+          <t>2405</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>20181228</v>
       </c>
       <c r="C22" t="n">
-        <v>2714217</v>
+        <v>3376686</v>
       </c>
       <c r="D22" t="n">
-        <v>2044555</v>
+        <v>719857</v>
       </c>
       <c r="E22" t="n">
-        <v>4758772</v>
+        <v>4096543</v>
       </c>
       <c r="F22" t="n">
-        <v>672776</v>
+        <v>752623</v>
       </c>
       <c r="G22" t="n">
-        <v>45015</v>
+        <v>12102</v>
       </c>
       <c r="H22" t="n">
-        <v>717791</v>
+        <v>764725</v>
       </c>
       <c r="I22" t="n">
-        <v>4040981</v>
+        <v>3331818</v>
       </c>
       <c r="J22" t="n">
-        <v>4758772</v>
+        <v>4096543</v>
       </c>
       <c r="K22" t="n">
-        <v>1928923</v>
+        <v>3434273</v>
       </c>
       <c r="L22" t="n">
-        <v>1928923</v>
+        <v>3434273</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-33403</v>
       </c>
       <c r="N22" t="n">
-        <v>43352</v>
+        <v>-174761</v>
       </c>
       <c r="O22" t="n">
-        <v>175.45</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="P22" t="n">
-        <v>0.98</v>
+        <v>-3.23</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.55</v>
+        <v>-4.16</v>
       </c>
       <c r="R22" t="n">
-        <v>49.16</v>
+        <v>14.64</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.01</v>
+        <v>-4.11</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2425</t>
+          <t>2417</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>20181228</v>
       </c>
       <c r="C23" t="n">
-        <v>1728661</v>
+        <v>2714217</v>
       </c>
       <c r="D23" t="n">
-        <v>285842</v>
+        <v>2044555</v>
       </c>
       <c r="E23" t="n">
-        <v>2014503</v>
+        <v>4758772</v>
       </c>
       <c r="F23" t="n">
-        <v>279003</v>
+        <v>672776</v>
       </c>
       <c r="G23" t="n">
-        <v>1376</v>
+        <v>45015</v>
       </c>
       <c r="H23" t="n">
-        <v>280379</v>
+        <v>717791</v>
       </c>
       <c r="I23" t="n">
-        <v>1734124</v>
+        <v>4040981</v>
       </c>
       <c r="J23" t="n">
-        <v>2014503</v>
+        <v>4758772</v>
       </c>
       <c r="K23" t="n">
-        <v>1014988</v>
+        <v>1928923</v>
       </c>
       <c r="L23" t="n">
-        <v>1014988</v>
+        <v>1928923</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>294829</v>
+        <v>43352</v>
       </c>
       <c r="O23" t="n">
-        <v>529.25</v>
+        <v>175.45</v>
       </c>
       <c r="P23" t="n">
-        <v>5.98</v>
+        <v>0.98</v>
       </c>
       <c r="Q23" t="n">
-        <v>7.22</v>
+        <v>1.55</v>
       </c>
       <c r="R23" t="n">
-        <v>9.01</v>
+        <v>49.16</v>
       </c>
       <c r="S23" t="n">
-        <v>5.95</v>
+        <v>-0.01</v>
       </c>
       <c r="T23" t="n">
         <v>1</v>
@@ -2286,478 +2286,478 @@
         <v>3</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2465</t>
+          <t>2425</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>20181228</v>
       </c>
       <c r="C24" t="n">
-        <v>1003594</v>
+        <v>1728661</v>
       </c>
       <c r="D24" t="n">
-        <v>256314</v>
+        <v>285842</v>
       </c>
       <c r="E24" t="n">
-        <v>1259908</v>
+        <v>2014503</v>
       </c>
       <c r="F24" t="n">
-        <v>943090</v>
+        <v>279003</v>
       </c>
       <c r="G24" t="n">
-        <v>15371</v>
+        <v>1376</v>
       </c>
       <c r="H24" t="n">
-        <v>958461</v>
+        <v>280379</v>
       </c>
       <c r="I24" t="n">
-        <v>301447</v>
+        <v>1734124</v>
       </c>
       <c r="J24" t="n">
-        <v>1259908</v>
+        <v>2014503</v>
       </c>
       <c r="K24" t="n">
-        <v>535873</v>
+        <v>1014988</v>
       </c>
       <c r="L24" t="n">
-        <v>535873</v>
+        <v>1014988</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>-66536</v>
+        <v>294829</v>
       </c>
       <c r="O24" t="n">
-        <v>5.94</v>
+        <v>529.25</v>
       </c>
       <c r="P24" t="n">
-        <v>-2.48</v>
+        <v>5.98</v>
       </c>
       <c r="Q24" t="n">
-        <v>-2</v>
+        <v>7.22</v>
       </c>
       <c r="R24" t="n">
-        <v>14.3</v>
+        <v>9.01</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.41</v>
+        <v>5.95</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>2465</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>20181228</v>
       </c>
       <c r="C25" t="n">
-        <v>4221579</v>
+        <v>1003594</v>
       </c>
       <c r="D25" t="n">
-        <v>746428</v>
+        <v>256314</v>
       </c>
       <c r="E25" t="n">
-        <v>4968007</v>
+        <v>1259908</v>
       </c>
       <c r="F25" t="n">
-        <v>746098</v>
+        <v>943090</v>
       </c>
       <c r="G25" t="n">
-        <v>75093</v>
+        <v>15371</v>
       </c>
       <c r="H25" t="n">
-        <v>821191</v>
+        <v>958461</v>
       </c>
       <c r="I25" t="n">
-        <v>4146816</v>
+        <v>301447</v>
       </c>
       <c r="J25" t="n">
-        <v>4968007</v>
+        <v>1259908</v>
       </c>
       <c r="K25" t="n">
-        <v>2796463</v>
+        <v>535873</v>
       </c>
       <c r="L25" t="n">
-        <v>2796463</v>
+        <v>535873</v>
       </c>
       <c r="M25" t="n">
-        <v>-29981</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>133841</v>
+        <v>-66536</v>
       </c>
       <c r="O25" t="n">
-        <v>2.07</v>
+        <v>5.94</v>
       </c>
       <c r="P25" t="n">
-        <v>8.630000000000001</v>
+        <v>-2.48</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.67</v>
+        <v>-2</v>
       </c>
       <c r="R25" t="n">
-        <v>41.4</v>
+        <v>14.3</v>
       </c>
       <c r="S25" t="n">
-        <v>3.29</v>
+        <v>-0.41</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3002</t>
+          <t>2495</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>20181228</v>
       </c>
       <c r="C26" t="n">
-        <v>1480405</v>
+        <v>4221579</v>
       </c>
       <c r="D26" t="n">
-        <v>349369</v>
+        <v>746428</v>
       </c>
       <c r="E26" t="n">
-        <v>1829774</v>
+        <v>4968007</v>
       </c>
       <c r="F26" t="n">
-        <v>152856</v>
+        <v>746098</v>
       </c>
       <c r="G26" t="n">
-        <v>311736</v>
+        <v>75093</v>
       </c>
       <c r="H26" t="n">
-        <v>464592</v>
+        <v>821191</v>
       </c>
       <c r="I26" t="n">
-        <v>1365182</v>
+        <v>4146816</v>
       </c>
       <c r="J26" t="n">
-        <v>1829774</v>
+        <v>4968007</v>
       </c>
       <c r="K26" t="n">
-        <v>1020000</v>
+        <v>2796463</v>
       </c>
       <c r="L26" t="n">
-        <v>1020000</v>
+        <v>2796463</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>-29981</v>
       </c>
       <c r="N26" t="n">
-        <v>15085</v>
+        <v>133841</v>
       </c>
       <c r="O26" t="n">
-        <v>-143.84</v>
+        <v>2.07</v>
       </c>
       <c r="P26" t="n">
-        <v>-5.21</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.46</v>
+        <v>9.67</v>
       </c>
       <c r="R26" t="n">
-        <v>28.19</v>
+        <v>41.4</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.5</v>
+        <v>3.29</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3005</t>
+          <t>3002</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>20181228</v>
       </c>
       <c r="C27" t="n">
-        <v>16956255</v>
+        <v>1480405</v>
       </c>
       <c r="D27" t="n">
-        <v>11207435</v>
+        <v>349369</v>
       </c>
       <c r="E27" t="n">
-        <v>28163690</v>
+        <v>1829774</v>
       </c>
       <c r="F27" t="n">
-        <v>9034525</v>
+        <v>152856</v>
       </c>
       <c r="G27" t="n">
-        <v>2807124</v>
+        <v>311736</v>
       </c>
       <c r="H27" t="n">
-        <v>11841649</v>
+        <v>464592</v>
       </c>
       <c r="I27" t="n">
-        <v>16322041</v>
+        <v>1365182</v>
       </c>
       <c r="J27" t="n">
-        <v>28163690</v>
+        <v>1829774</v>
       </c>
       <c r="K27" t="n">
-        <v>5791652</v>
+        <v>1020000</v>
       </c>
       <c r="L27" t="n">
-        <v>5791652</v>
+        <v>1020000</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>3026872</v>
+        <v>15085</v>
       </c>
       <c r="O27" t="n">
-        <v>18.19</v>
+        <v>-143.84</v>
       </c>
       <c r="P27" t="n">
-        <v>9.789999999999999</v>
+        <v>-5.21</v>
       </c>
       <c r="Q27" t="n">
-        <v>12.26</v>
+        <v>2.46</v>
       </c>
       <c r="R27" t="n">
-        <v>28.13</v>
+        <v>28.19</v>
       </c>
       <c r="S27" t="n">
-        <v>10.74</v>
+        <v>-0.5</v>
       </c>
       <c r="T27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X27" t="n">
         <v>2</v>
       </c>
       <c r="Y27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3013</t>
+          <t>3005</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>20181228</v>
       </c>
       <c r="C28" t="n">
-        <v>3485627</v>
+        <v>16956255</v>
       </c>
       <c r="D28" t="n">
-        <v>1635789</v>
+        <v>11207435</v>
       </c>
       <c r="E28" t="n">
-        <v>5121416</v>
+        <v>28163690</v>
       </c>
       <c r="F28" t="n">
-        <v>2217813</v>
+        <v>9034525</v>
       </c>
       <c r="G28" t="n">
-        <v>293451</v>
+        <v>2807124</v>
       </c>
       <c r="H28" t="n">
-        <v>2511264</v>
+        <v>11841649</v>
       </c>
       <c r="I28" t="n">
-        <v>2610152</v>
+        <v>16322041</v>
       </c>
       <c r="J28" t="n">
-        <v>5121416</v>
+        <v>28163690</v>
       </c>
       <c r="K28" t="n">
-        <v>1699350</v>
+        <v>5791652</v>
       </c>
       <c r="L28" t="n">
-        <v>1699350</v>
+        <v>5791652</v>
       </c>
       <c r="M28" t="n">
-        <v>-52027</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>185267</v>
+        <v>3026872</v>
       </c>
       <c r="O28" t="n">
-        <v>-41.24</v>
+        <v>18.19</v>
       </c>
       <c r="P28" t="n">
-        <v>2.34</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.99</v>
+        <v>12.26</v>
       </c>
       <c r="R28" t="n">
-        <v>7.63</v>
+        <v>28.13</v>
       </c>
       <c r="S28" t="n">
-        <v>1.6</v>
+        <v>10.74</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3017</t>
+          <t>3013</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>20181228</v>
       </c>
       <c r="C29" t="n">
-        <v>21571861</v>
+        <v>3485627</v>
       </c>
       <c r="D29" t="n">
-        <v>8824403</v>
+        <v>1635789</v>
       </c>
       <c r="E29" t="n">
-        <v>30396264</v>
+        <v>5121416</v>
       </c>
       <c r="F29" t="n">
-        <v>16304381</v>
+        <v>2217813</v>
       </c>
       <c r="G29" t="n">
-        <v>5083313</v>
+        <v>293451</v>
       </c>
       <c r="H29" t="n">
-        <v>21387694</v>
+        <v>2511264</v>
       </c>
       <c r="I29" t="n">
-        <v>9008570</v>
+        <v>2610152</v>
       </c>
       <c r="J29" t="n">
-        <v>30396264</v>
+        <v>5121416</v>
       </c>
       <c r="K29" t="n">
-        <v>3533101</v>
+        <v>1699350</v>
       </c>
       <c r="L29" t="n">
-        <v>3533101</v>
+        <v>1699350</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>-52027</v>
       </c>
       <c r="N29" t="n">
-        <v>1031362</v>
+        <v>185267</v>
       </c>
       <c r="O29" t="n">
-        <v>-22.3</v>
+        <v>-41.24</v>
       </c>
       <c r="P29" t="n">
-        <v>2.51</v>
+        <v>2.34</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.55</v>
+        <v>2.99</v>
       </c>
       <c r="R29" t="n">
-        <v>11.86</v>
+        <v>7.63</v>
       </c>
       <c r="S29" t="n">
-        <v>2.47</v>
+        <v>1.6</v>
       </c>
       <c r="T29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>1</v>
@@ -2775,62 +2775,62 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3022</t>
+          <t>3017</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>20181228</v>
       </c>
       <c r="C30" t="n">
-        <v>6929198</v>
+        <v>21571861</v>
       </c>
       <c r="D30" t="n">
-        <v>3871806</v>
+        <v>8824403</v>
       </c>
       <c r="E30" t="n">
-        <v>10801004</v>
+        <v>30396264</v>
       </c>
       <c r="F30" t="n">
-        <v>2173193</v>
+        <v>16304381</v>
       </c>
       <c r="G30" t="n">
-        <v>735790</v>
+        <v>5083313</v>
       </c>
       <c r="H30" t="n">
-        <v>2908983</v>
+        <v>21387694</v>
       </c>
       <c r="I30" t="n">
-        <v>7892021</v>
+        <v>9008570</v>
       </c>
       <c r="J30" t="n">
-        <v>10801004</v>
+        <v>30396264</v>
       </c>
       <c r="K30" t="n">
-        <v>2954830</v>
+        <v>3533101</v>
       </c>
       <c r="L30" t="n">
-        <v>2954830</v>
+        <v>3533101</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1333947</v>
+        <v>1031362</v>
       </c>
       <c r="O30" t="n">
-        <v>-2.85</v>
+        <v>-22.3</v>
       </c>
       <c r="P30" t="n">
-        <v>14.52</v>
+        <v>2.51</v>
       </c>
       <c r="Q30" t="n">
-        <v>21.56</v>
+        <v>3.55</v>
       </c>
       <c r="R30" t="n">
-        <v>31.89</v>
+        <v>11.86</v>
       </c>
       <c r="S30" t="n">
-        <v>11.11</v>
+        <v>2.47</v>
       </c>
       <c r="T30" t="n">
         <v>2</v>
@@ -2839,156 +2839,156 @@
         <v>1</v>
       </c>
       <c r="V30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3046</t>
+          <t>3022</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>20181228</v>
       </c>
       <c r="C31" t="n">
-        <v>989336</v>
+        <v>6929198</v>
       </c>
       <c r="D31" t="n">
-        <v>455482</v>
+        <v>3871806</v>
       </c>
       <c r="E31" t="n">
-        <v>1444818</v>
+        <v>10801004</v>
       </c>
       <c r="F31" t="n">
-        <v>561448</v>
+        <v>2173193</v>
       </c>
       <c r="G31" t="n">
-        <v>101508</v>
+        <v>735790</v>
       </c>
       <c r="H31" t="n">
-        <v>662956</v>
+        <v>2908983</v>
       </c>
       <c r="I31" t="n">
-        <v>781862</v>
+        <v>7892021</v>
       </c>
       <c r="J31" t="n">
-        <v>1444818</v>
+        <v>10801004</v>
       </c>
       <c r="K31" t="n">
-        <v>714480</v>
+        <v>2954830</v>
       </c>
       <c r="L31" t="n">
-        <v>714480</v>
+        <v>2954830</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>9224</v>
+        <v>1333947</v>
       </c>
       <c r="O31" t="n">
-        <v>90.77</v>
+        <v>-2.85</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.64</v>
+        <v>14.52</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.54</v>
+        <v>21.56</v>
       </c>
       <c r="R31" t="n">
-        <v>31.43</v>
+        <v>31.89</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.66</v>
+        <v>11.11</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X31" t="n">
         <v>3</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3057</t>
+          <t>3046</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>20181228</v>
       </c>
       <c r="C32" t="n">
-        <v>1710527</v>
+        <v>989336</v>
       </c>
       <c r="D32" t="n">
-        <v>444291</v>
+        <v>455482</v>
       </c>
       <c r="E32" t="n">
-        <v>2154818</v>
+        <v>1444818</v>
       </c>
       <c r="F32" t="n">
-        <v>794900</v>
+        <v>561448</v>
       </c>
       <c r="G32" t="n">
-        <v>149992</v>
+        <v>101508</v>
       </c>
       <c r="H32" t="n">
-        <v>944892</v>
+        <v>662956</v>
       </c>
       <c r="I32" t="n">
-        <v>1209926</v>
+        <v>781862</v>
       </c>
       <c r="J32" t="n">
-        <v>2154818</v>
+        <v>1444818</v>
       </c>
       <c r="K32" t="n">
-        <v>1614092</v>
+        <v>714480</v>
       </c>
       <c r="L32" t="n">
-        <v>1614092</v>
+        <v>714480</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-48306</v>
+        <v>9224</v>
       </c>
       <c r="O32" t="n">
-        <v>89.42</v>
+        <v>90.77</v>
       </c>
       <c r="P32" t="n">
-        <v>-3.48</v>
+        <v>-0.64</v>
       </c>
       <c r="Q32" t="n">
-        <v>-2.64</v>
+        <v>0.54</v>
       </c>
       <c r="R32" t="n">
-        <v>32.19</v>
+        <v>31.43</v>
       </c>
       <c r="S32" t="n">
-        <v>-1.36</v>
+        <v>-0.66</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3012,68 +3012,68 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3060</t>
+          <t>3057</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>20181228</v>
       </c>
       <c r="C33" t="n">
-        <v>3877939</v>
+        <v>1710527</v>
       </c>
       <c r="D33" t="n">
-        <v>2598008</v>
+        <v>444291</v>
       </c>
       <c r="E33" t="n">
-        <v>6475947</v>
+        <v>2154818</v>
       </c>
       <c r="F33" t="n">
-        <v>2203176</v>
+        <v>794900</v>
       </c>
       <c r="G33" t="n">
-        <v>493060</v>
+        <v>149992</v>
       </c>
       <c r="H33" t="n">
-        <v>2696236</v>
+        <v>944892</v>
       </c>
       <c r="I33" t="n">
-        <v>3779711</v>
+        <v>1209926</v>
       </c>
       <c r="J33" t="n">
-        <v>6475947</v>
+        <v>2154818</v>
       </c>
       <c r="K33" t="n">
-        <v>1393616</v>
+        <v>1614092</v>
       </c>
       <c r="L33" t="n">
-        <v>1393616</v>
+        <v>1614092</v>
       </c>
       <c r="M33" t="n">
-        <v>-76800</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-340853</v>
+        <v>-48306</v>
       </c>
       <c r="O33" t="n">
-        <v>-988.5</v>
+        <v>89.42</v>
       </c>
       <c r="P33" t="n">
-        <v>-5.48</v>
+        <v>-3.48</v>
       </c>
       <c r="Q33" t="n">
-        <v>-5.02</v>
+        <v>-2.64</v>
       </c>
       <c r="R33" t="n">
-        <v>4.54</v>
+        <v>32.19</v>
       </c>
       <c r="S33" t="n">
-        <v>-5.74</v>
+        <v>-1.36</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3091,71 +3091,71 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>3060</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>20181228</v>
       </c>
       <c r="C34" t="n">
-        <v>275427144</v>
+        <v>3877939</v>
       </c>
       <c r="D34" t="n">
-        <v>63675431</v>
+        <v>2598008</v>
       </c>
       <c r="E34" t="n">
-        <v>339102575</v>
+        <v>6475947</v>
       </c>
       <c r="F34" t="n">
-        <v>239878889</v>
+        <v>2203176</v>
       </c>
       <c r="G34" t="n">
-        <v>25692104</v>
+        <v>493060</v>
       </c>
       <c r="H34" t="n">
-        <v>265570993</v>
+        <v>2696236</v>
       </c>
       <c r="I34" t="n">
-        <v>73531582</v>
+        <v>3779711</v>
       </c>
       <c r="J34" t="n">
-        <v>339102575</v>
+        <v>6475947</v>
       </c>
       <c r="K34" t="n">
-        <v>28421220</v>
+        <v>1393616</v>
       </c>
       <c r="L34" t="n">
-        <v>28421220</v>
+        <v>1393616</v>
       </c>
       <c r="M34" t="n">
-        <v>-533236</v>
+        <v>-76800</v>
       </c>
       <c r="N34" t="n">
-        <v>9658838</v>
+        <v>-340853</v>
       </c>
       <c r="O34" t="n">
-        <v>67.03</v>
+        <v>-988.5</v>
       </c>
       <c r="P34" t="n">
-        <v>0.82</v>
+        <v>-5.48</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.09</v>
+        <v>-5.02</v>
       </c>
       <c r="R34" t="n">
-        <v>4.22</v>
+        <v>4.54</v>
       </c>
       <c r="S34" t="n">
-        <v>1.21</v>
+        <v>-5.74</v>
       </c>
       <c r="T34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3328,235 +3328,235 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3515</t>
+          <t>3652</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>20181228</v>
       </c>
       <c r="C37" t="n">
-        <v>8664042</v>
+        <v>1079605</v>
       </c>
       <c r="D37" t="n">
-        <v>700151</v>
+        <v>494344</v>
       </c>
       <c r="E37" t="n">
-        <v>9364193</v>
+        <v>1573949</v>
       </c>
       <c r="F37" t="n">
-        <v>3225809</v>
+        <v>382917</v>
       </c>
       <c r="G37" t="n">
-        <v>26896</v>
+        <v>65095</v>
       </c>
       <c r="H37" t="n">
-        <v>3252705</v>
+        <v>448012</v>
       </c>
       <c r="I37" t="n">
-        <v>6111488</v>
+        <v>1125937</v>
       </c>
       <c r="J37" t="n">
-        <v>9364193</v>
+        <v>1573949</v>
       </c>
       <c r="K37" t="n">
-        <v>1207456</v>
+        <v>470975</v>
       </c>
       <c r="L37" t="n">
-        <v>1207456</v>
+        <v>470975</v>
       </c>
       <c r="M37" t="n">
-        <v>-480</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>694442</v>
+        <v>958</v>
       </c>
       <c r="O37" t="n">
-        <v>33.97</v>
+        <v>-70.90000000000001</v>
       </c>
       <c r="P37" t="n">
-        <v>5.82</v>
+        <v>0.6</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.81</v>
+        <v>0.05</v>
       </c>
       <c r="R37" t="n">
-        <v>22.25</v>
+        <v>32.53</v>
       </c>
       <c r="S37" t="n">
-        <v>6.53</v>
+        <v>0.1</v>
       </c>
       <c r="T37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3652</t>
+          <t>3701</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>20181228</v>
       </c>
       <c r="C38" t="n">
-        <v>1079605</v>
+        <v>4563764</v>
       </c>
       <c r="D38" t="n">
-        <v>494344</v>
+        <v>2267017</v>
       </c>
       <c r="E38" t="n">
-        <v>1573949</v>
+        <v>6830781</v>
       </c>
       <c r="F38" t="n">
-        <v>382917</v>
+        <v>2086942</v>
       </c>
       <c r="G38" t="n">
-        <v>65095</v>
+        <v>1165400</v>
       </c>
       <c r="H38" t="n">
-        <v>448012</v>
+        <v>3252342</v>
       </c>
       <c r="I38" t="n">
-        <v>1125937</v>
+        <v>3578439</v>
       </c>
       <c r="J38" t="n">
-        <v>1573949</v>
+        <v>6830781</v>
       </c>
       <c r="K38" t="n">
-        <v>470975</v>
+        <v>1903446</v>
       </c>
       <c r="L38" t="n">
-        <v>470975</v>
+        <v>1903446</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>958</v>
+        <v>667927</v>
       </c>
       <c r="O38" t="n">
-        <v>-70.90000000000001</v>
+        <v>810.47</v>
       </c>
       <c r="P38" t="n">
-        <v>0.6</v>
+        <v>8.16</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.05</v>
+        <v>10.51</v>
       </c>
       <c r="R38" t="n">
-        <v>32.53</v>
+        <v>13.03</v>
       </c>
       <c r="S38" t="n">
-        <v>0.1</v>
+        <v>-6.02</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3701</t>
+          <t>3712</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>20181228</v>
       </c>
       <c r="C39" t="n">
-        <v>4563764</v>
+        <v>6902925</v>
       </c>
       <c r="D39" t="n">
-        <v>2267017</v>
+        <v>8837102</v>
       </c>
       <c r="E39" t="n">
-        <v>6830781</v>
+        <v>15740027</v>
       </c>
       <c r="F39" t="n">
-        <v>2086942</v>
+        <v>5169736</v>
       </c>
       <c r="G39" t="n">
-        <v>1165400</v>
+        <v>3315824</v>
       </c>
       <c r="H39" t="n">
-        <v>3252342</v>
+        <v>8485560</v>
       </c>
       <c r="I39" t="n">
-        <v>3578439</v>
+        <v>7254467</v>
       </c>
       <c r="J39" t="n">
-        <v>6830781</v>
+        <v>15740027</v>
       </c>
       <c r="K39" t="n">
-        <v>1903446</v>
+        <v>2462421</v>
       </c>
       <c r="L39" t="n">
-        <v>1903446</v>
+        <v>2462421</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>667927</v>
+        <v>-138511</v>
       </c>
       <c r="O39" t="n">
-        <v>810.47</v>
+        <v>-169.73</v>
       </c>
       <c r="P39" t="n">
-        <v>8.16</v>
+        <v>-5.08</v>
       </c>
       <c r="Q39" t="n">
-        <v>10.51</v>
+        <v>-4.12</v>
       </c>
       <c r="R39" t="n">
-        <v>13.03</v>
+        <v>9.69</v>
       </c>
       <c r="S39" t="n">
-        <v>-6.02</v>
+        <v>-4.54</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3565,220 +3565,220 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3706</t>
+          <t>4916</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>20181228</v>
       </c>
       <c r="C40" t="n">
-        <v>19033549</v>
+        <v>6245671</v>
       </c>
       <c r="D40" t="n">
-        <v>29012602</v>
+        <v>2831634</v>
       </c>
       <c r="E40" t="n">
-        <v>48046151</v>
+        <v>9077305</v>
       </c>
       <c r="F40" t="n">
-        <v>9437584</v>
+        <v>4472521</v>
       </c>
       <c r="G40" t="n">
-        <v>805240</v>
+        <v>739629</v>
       </c>
       <c r="H40" t="n">
-        <v>10242824</v>
+        <v>5212150</v>
       </c>
       <c r="I40" t="n">
-        <v>37803327</v>
+        <v>3865155</v>
       </c>
       <c r="J40" t="n">
-        <v>48046151</v>
+        <v>9077305</v>
       </c>
       <c r="K40" t="n">
-        <v>9367677</v>
+        <v>821875</v>
       </c>
       <c r="L40" t="n">
-        <v>9367677</v>
+        <v>821875</v>
       </c>
       <c r="M40" t="n">
-        <v>-353087</v>
+        <v>-71941</v>
       </c>
       <c r="N40" t="n">
-        <v>3472714</v>
+        <v>380683</v>
       </c>
       <c r="O40" t="n">
-        <v>27.71</v>
+        <v>75.3</v>
       </c>
       <c r="P40" t="n">
-        <v>10.72</v>
+        <v>3.42</v>
       </c>
       <c r="Q40" t="n">
-        <v>11.29</v>
+        <v>4.48</v>
       </c>
       <c r="R40" t="n">
-        <v>15.57</v>
+        <v>23.17</v>
       </c>
       <c r="S40" t="n">
-        <v>1.09</v>
+        <v>4.64</v>
       </c>
       <c r="T40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3712</t>
+          <t>4938</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>20181228</v>
       </c>
       <c r="C41" t="n">
-        <v>6902925</v>
+        <v>482805097</v>
       </c>
       <c r="D41" t="n">
-        <v>8837102</v>
+        <v>101545518</v>
       </c>
       <c r="E41" t="n">
-        <v>15740027</v>
+        <v>584350615</v>
       </c>
       <c r="F41" t="n">
-        <v>5169736</v>
+        <v>370401314</v>
       </c>
       <c r="G41" t="n">
-        <v>3315824</v>
+        <v>27502518</v>
       </c>
       <c r="H41" t="n">
-        <v>8485560</v>
+        <v>397903832</v>
       </c>
       <c r="I41" t="n">
-        <v>7254467</v>
+        <v>186446783</v>
       </c>
       <c r="J41" t="n">
-        <v>15740027</v>
+        <v>584350615</v>
       </c>
       <c r="K41" t="n">
-        <v>2462421</v>
+        <v>26123773</v>
       </c>
       <c r="L41" t="n">
-        <v>2462421</v>
+        <v>26123773</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>-4974</v>
       </c>
       <c r="N41" t="n">
-        <v>-138511</v>
+        <v>15056267</v>
       </c>
       <c r="O41" t="n">
-        <v>-169.73</v>
+        <v>-30.59</v>
       </c>
       <c r="P41" t="n">
-        <v>-5.08</v>
+        <v>0.83</v>
       </c>
       <c r="Q41" t="n">
-        <v>-4.12</v>
+        <v>1.12</v>
       </c>
       <c r="R41" t="n">
-        <v>9.69</v>
+        <v>3.04</v>
       </c>
       <c r="S41" t="n">
-        <v>-4.54</v>
+        <v>0.89</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4916</t>
+          <t>5215</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>20181228</v>
       </c>
       <c r="C42" t="n">
-        <v>6245671</v>
+        <v>1850050</v>
       </c>
       <c r="D42" t="n">
-        <v>2831634</v>
+        <v>633581</v>
       </c>
       <c r="E42" t="n">
-        <v>9077305</v>
+        <v>2483631</v>
       </c>
       <c r="F42" t="n">
-        <v>4472521</v>
+        <v>515975</v>
       </c>
       <c r="G42" t="n">
-        <v>739629</v>
+        <v>66269</v>
       </c>
       <c r="H42" t="n">
-        <v>5212150</v>
+        <v>582244</v>
       </c>
       <c r="I42" t="n">
-        <v>3865155</v>
+        <v>1901387</v>
       </c>
       <c r="J42" t="n">
-        <v>9077305</v>
+        <v>2483631</v>
       </c>
       <c r="K42" t="n">
-        <v>821875</v>
+        <v>543375</v>
       </c>
       <c r="L42" t="n">
-        <v>821875</v>
+        <v>543375</v>
       </c>
       <c r="M42" t="n">
-        <v>-71941</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>380683</v>
+        <v>239125</v>
       </c>
       <c r="O42" t="n">
-        <v>75.3</v>
+        <v>686.4</v>
       </c>
       <c r="P42" t="n">
-        <v>3.42</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="Q42" t="n">
-        <v>4.48</v>
+        <v>12.94</v>
       </c>
       <c r="R42" t="n">
-        <v>23.17</v>
+        <v>22.43</v>
       </c>
       <c r="S42" t="n">
-        <v>4.64</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="T42" t="n">
         <v>1</v>
@@ -3787,636 +3787,636 @@
         <v>3</v>
       </c>
       <c r="V42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X42" t="n">
         <v>2</v>
       </c>
       <c r="Y42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4938</t>
+          <t>5258</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>20181228</v>
       </c>
       <c r="C43" t="n">
-        <v>482805097</v>
+        <v>2446095</v>
       </c>
       <c r="D43" t="n">
-        <v>101545518</v>
+        <v>609048</v>
       </c>
       <c r="E43" t="n">
-        <v>584350615</v>
+        <v>3055143</v>
       </c>
       <c r="F43" t="n">
-        <v>370401314</v>
+        <v>1612406</v>
       </c>
       <c r="G43" t="n">
-        <v>27502518</v>
+        <v>112518</v>
       </c>
       <c r="H43" t="n">
-        <v>397903832</v>
+        <v>1724924</v>
       </c>
       <c r="I43" t="n">
-        <v>186446783</v>
+        <v>1330219</v>
       </c>
       <c r="J43" t="n">
-        <v>584350615</v>
+        <v>3055143</v>
       </c>
       <c r="K43" t="n">
-        <v>26123773</v>
+        <v>895426</v>
       </c>
       <c r="L43" t="n">
-        <v>26123773</v>
+        <v>895426</v>
       </c>
       <c r="M43" t="n">
-        <v>-4974</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>15056267</v>
+        <v>-410897</v>
       </c>
       <c r="O43" t="n">
-        <v>-30.59</v>
+        <v>-518.71</v>
       </c>
       <c r="P43" t="n">
-        <v>0.83</v>
+        <v>-14.82</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.12</v>
+        <v>-17.65</v>
       </c>
       <c r="R43" t="n">
-        <v>3.04</v>
+        <v>29.17</v>
       </c>
       <c r="S43" t="n">
-        <v>0.89</v>
+        <v>-19.33</v>
       </c>
       <c r="T43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5215</t>
+          <t>6117</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>20181228</v>
       </c>
       <c r="C44" t="n">
-        <v>1850050</v>
+        <v>1895458</v>
       </c>
       <c r="D44" t="n">
-        <v>633581</v>
+        <v>973425</v>
       </c>
       <c r="E44" t="n">
-        <v>2483631</v>
+        <v>2868883</v>
       </c>
       <c r="F44" t="n">
-        <v>515975</v>
+        <v>1397893</v>
       </c>
       <c r="G44" t="n">
-        <v>66269</v>
+        <v>41924</v>
       </c>
       <c r="H44" t="n">
-        <v>582244</v>
+        <v>1439817</v>
       </c>
       <c r="I44" t="n">
-        <v>1901387</v>
+        <v>1429066</v>
       </c>
       <c r="J44" t="n">
-        <v>2483631</v>
+        <v>2868883</v>
       </c>
       <c r="K44" t="n">
-        <v>543375</v>
+        <v>886500</v>
       </c>
       <c r="L44" t="n">
-        <v>543375</v>
+        <v>886500</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>239125</v>
+        <v>-202179</v>
       </c>
       <c r="O44" t="n">
-        <v>686.4</v>
+        <v>-172.87</v>
       </c>
       <c r="P44" t="n">
-        <v>9.289999999999999</v>
+        <v>-10.26</v>
       </c>
       <c r="Q44" t="n">
-        <v>12.94</v>
+        <v>-10.44</v>
       </c>
       <c r="R44" t="n">
-        <v>22.43</v>
+        <v>12.45</v>
       </c>
       <c r="S44" t="n">
-        <v>9.800000000000001</v>
+        <v>-13.26</v>
       </c>
       <c r="T44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5258</t>
+          <t>6128</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>20181228</v>
       </c>
       <c r="C45" t="n">
-        <v>2446095</v>
+        <v>2840819</v>
       </c>
       <c r="D45" t="n">
-        <v>609048</v>
+        <v>3895444</v>
       </c>
       <c r="E45" t="n">
-        <v>3055143</v>
+        <v>6736263</v>
       </c>
       <c r="F45" t="n">
-        <v>1612406</v>
+        <v>1990075</v>
       </c>
       <c r="G45" t="n">
-        <v>112518</v>
+        <v>1314285</v>
       </c>
       <c r="H45" t="n">
-        <v>1724924</v>
+        <v>3304360</v>
       </c>
       <c r="I45" t="n">
-        <v>1330219</v>
+        <v>3431903</v>
       </c>
       <c r="J45" t="n">
-        <v>3055143</v>
+        <v>6736263</v>
       </c>
       <c r="K45" t="n">
-        <v>895426</v>
+        <v>1275887</v>
       </c>
       <c r="L45" t="n">
-        <v>895426</v>
+        <v>1275887</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>-410897</v>
+        <v>116239</v>
       </c>
       <c r="O45" t="n">
-        <v>-518.71</v>
+        <v>-90.94</v>
       </c>
       <c r="P45" t="n">
-        <v>-14.82</v>
+        <v>0.61</v>
       </c>
       <c r="Q45" t="n">
-        <v>-17.65</v>
+        <v>1.71</v>
       </c>
       <c r="R45" t="n">
-        <v>29.17</v>
+        <v>32.33</v>
       </c>
       <c r="S45" t="n">
-        <v>-19.33</v>
+        <v>5.51</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6117</t>
+          <t>6166</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>20181228</v>
       </c>
       <c r="C46" t="n">
-        <v>1895458</v>
+        <v>6199027</v>
       </c>
       <c r="D46" t="n">
-        <v>973425</v>
+        <v>2080245</v>
       </c>
       <c r="E46" t="n">
-        <v>2868883</v>
+        <v>8279272</v>
       </c>
       <c r="F46" t="n">
-        <v>1397893</v>
+        <v>3410591</v>
       </c>
       <c r="G46" t="n">
-        <v>41924</v>
+        <v>300195</v>
       </c>
       <c r="H46" t="n">
-        <v>1439817</v>
+        <v>3710786</v>
       </c>
       <c r="I46" t="n">
-        <v>1429066</v>
+        <v>4568486</v>
       </c>
       <c r="J46" t="n">
-        <v>2868883</v>
+        <v>8279272</v>
       </c>
       <c r="K46" t="n">
-        <v>886500</v>
+        <v>2175232</v>
       </c>
       <c r="L46" t="n">
-        <v>886500</v>
+        <v>2175232</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>-202179</v>
+        <v>302029</v>
       </c>
       <c r="O46" t="n">
-        <v>-172.87</v>
+        <v>-37.31</v>
       </c>
       <c r="P46" t="n">
-        <v>-10.26</v>
+        <v>2.33</v>
       </c>
       <c r="Q46" t="n">
-        <v>-10.44</v>
+        <v>2.88</v>
       </c>
       <c r="R46" t="n">
-        <v>12.45</v>
+        <v>35.57</v>
       </c>
       <c r="S46" t="n">
-        <v>-13.26</v>
+        <v>2.77</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6128</t>
+          <t>6206</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>20181228</v>
       </c>
       <c r="C47" t="n">
-        <v>2840819</v>
+        <v>4066365</v>
       </c>
       <c r="D47" t="n">
-        <v>3895444</v>
+        <v>1740356</v>
       </c>
       <c r="E47" t="n">
-        <v>6736263</v>
+        <v>5806721</v>
       </c>
       <c r="F47" t="n">
-        <v>1990075</v>
+        <v>1013545</v>
       </c>
       <c r="G47" t="n">
-        <v>1314285</v>
+        <v>109393</v>
       </c>
       <c r="H47" t="n">
-        <v>3304360</v>
+        <v>1122938</v>
       </c>
       <c r="I47" t="n">
-        <v>3431903</v>
+        <v>4683783</v>
       </c>
       <c r="J47" t="n">
-        <v>6736263</v>
+        <v>5806721</v>
       </c>
       <c r="K47" t="n">
-        <v>1275887</v>
+        <v>1430623</v>
       </c>
       <c r="L47" t="n">
-        <v>1275887</v>
+        <v>1430623</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>116239</v>
+        <v>919885</v>
       </c>
       <c r="O47" t="n">
-        <v>-90.94</v>
+        <v>8.35</v>
       </c>
       <c r="P47" t="n">
-        <v>0.61</v>
+        <v>12.06</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.71</v>
+        <v>14</v>
       </c>
       <c r="R47" t="n">
-        <v>32.33</v>
+        <v>29.32</v>
       </c>
       <c r="S47" t="n">
-        <v>5.51</v>
+        <v>13.8</v>
       </c>
       <c r="T47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6166</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>20181228</v>
       </c>
       <c r="C48" t="n">
-        <v>6199027</v>
+        <v>5253442</v>
       </c>
       <c r="D48" t="n">
-        <v>2080245</v>
+        <v>1646044</v>
       </c>
       <c r="E48" t="n">
-        <v>8279272</v>
+        <v>6899486</v>
       </c>
       <c r="F48" t="n">
-        <v>3410591</v>
+        <v>2666513</v>
       </c>
       <c r="G48" t="n">
-        <v>300195</v>
+        <v>394677</v>
       </c>
       <c r="H48" t="n">
-        <v>3710786</v>
+        <v>3061190</v>
       </c>
       <c r="I48" t="n">
-        <v>4568486</v>
+        <v>3838296</v>
       </c>
       <c r="J48" t="n">
-        <v>8279272</v>
+        <v>6899486</v>
       </c>
       <c r="K48" t="n">
-        <v>2175232</v>
+        <v>863434</v>
       </c>
       <c r="L48" t="n">
-        <v>2175232</v>
+        <v>863434</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>302029</v>
+        <v>931048</v>
       </c>
       <c r="O48" t="n">
-        <v>-37.31</v>
+        <v>19.06</v>
       </c>
       <c r="P48" t="n">
-        <v>2.33</v>
+        <v>7.77</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.88</v>
+        <v>12.15</v>
       </c>
       <c r="R48" t="n">
-        <v>35.57</v>
+        <v>20.25</v>
       </c>
       <c r="S48" t="n">
-        <v>2.77</v>
+        <v>10.79</v>
       </c>
       <c r="T48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6206</t>
+          <t>6235</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>20181228</v>
       </c>
       <c r="C49" t="n">
-        <v>4066365</v>
+        <v>2669642</v>
       </c>
       <c r="D49" t="n">
-        <v>1740356</v>
+        <v>1998202</v>
       </c>
       <c r="E49" t="n">
-        <v>5806721</v>
+        <v>4667844</v>
       </c>
       <c r="F49" t="n">
-        <v>1013545</v>
+        <v>2246939</v>
       </c>
       <c r="G49" t="n">
-        <v>109393</v>
+        <v>92583</v>
       </c>
       <c r="H49" t="n">
-        <v>1122938</v>
+        <v>2339522</v>
       </c>
       <c r="I49" t="n">
-        <v>4683783</v>
+        <v>2328322</v>
       </c>
       <c r="J49" t="n">
-        <v>5806721</v>
+        <v>4667844</v>
       </c>
       <c r="K49" t="n">
-        <v>1430623</v>
+        <v>1667676</v>
       </c>
       <c r="L49" t="n">
-        <v>1430623</v>
+        <v>1671050</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>919885</v>
+        <v>208989</v>
       </c>
       <c r="O49" t="n">
-        <v>8.35</v>
+        <v>103.34</v>
       </c>
       <c r="P49" t="n">
-        <v>12.06</v>
+        <v>4.41</v>
       </c>
       <c r="Q49" t="n">
-        <v>14</v>
+        <v>5.48</v>
       </c>
       <c r="R49" t="n">
-        <v>29.32</v>
+        <v>20.21</v>
       </c>
       <c r="S49" t="n">
-        <v>13.8</v>
+        <v>4.65</v>
       </c>
       <c r="T49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>6277</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>20181228</v>
       </c>
       <c r="C50" t="n">
-        <v>5253442</v>
+        <v>4638222</v>
       </c>
       <c r="D50" t="n">
-        <v>1646044</v>
+        <v>2406842</v>
       </c>
       <c r="E50" t="n">
-        <v>6899486</v>
+        <v>7045064</v>
       </c>
       <c r="F50" t="n">
-        <v>2666513</v>
+        <v>2074856</v>
       </c>
       <c r="G50" t="n">
-        <v>394677</v>
+        <v>383789</v>
       </c>
       <c r="H50" t="n">
-        <v>3061190</v>
+        <v>2458645</v>
       </c>
       <c r="I50" t="n">
-        <v>3838296</v>
+        <v>4586419</v>
       </c>
       <c r="J50" t="n">
-        <v>6899486</v>
+        <v>7045064</v>
       </c>
       <c r="K50" t="n">
-        <v>863434</v>
+        <v>1194711</v>
       </c>
       <c r="L50" t="n">
-        <v>863434</v>
+        <v>1194711</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>931048</v>
+        <v>1856970</v>
       </c>
       <c r="O50" t="n">
-        <v>19.06</v>
+        <v>115.09</v>
       </c>
       <c r="P50" t="n">
-        <v>7.77</v>
+        <v>30.69</v>
       </c>
       <c r="Q50" t="n">
-        <v>12.15</v>
+        <v>35.9</v>
       </c>
       <c r="R50" t="n">
-        <v>20.25</v>
+        <v>58.84</v>
       </c>
       <c r="S50" t="n">
-        <v>10.79</v>
+        <v>16.05</v>
       </c>
       <c r="T50" t="n">
         <v>2</v>
       </c>
       <c r="U50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V50" t="n">
         <v>3</v>
@@ -4425,7 +4425,7 @@
         <v>3</v>
       </c>
       <c r="X50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y50" t="n">
         <v>3</v>
@@ -4434,68 +4434,68 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6235</t>
+          <t>6414</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>20181228</v>
       </c>
       <c r="C51" t="n">
-        <v>2669642</v>
+        <v>48125111</v>
       </c>
       <c r="D51" t="n">
-        <v>1998202</v>
+        <v>26905466</v>
       </c>
       <c r="E51" t="n">
-        <v>4667844</v>
+        <v>75030577</v>
       </c>
       <c r="F51" t="n">
-        <v>2246939</v>
+        <v>45172659</v>
       </c>
       <c r="G51" t="n">
-        <v>92583</v>
+        <v>3976514</v>
       </c>
       <c r="H51" t="n">
-        <v>2339522</v>
+        <v>49149173</v>
       </c>
       <c r="I51" t="n">
-        <v>2328322</v>
+        <v>25881404</v>
       </c>
       <c r="J51" t="n">
-        <v>4667844</v>
+        <v>75030577</v>
       </c>
       <c r="K51" t="n">
-        <v>1667676</v>
+        <v>775745</v>
       </c>
       <c r="L51" t="n">
-        <v>1671050</v>
+        <v>775745</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>-236048</v>
       </c>
       <c r="N51" t="n">
-        <v>208989</v>
+        <v>3604867</v>
       </c>
       <c r="O51" t="n">
-        <v>103.34</v>
+        <v>55.62</v>
       </c>
       <c r="P51" t="n">
-        <v>4.41</v>
+        <v>4.1</v>
       </c>
       <c r="Q51" t="n">
-        <v>5.48</v>
+        <v>5.23</v>
       </c>
       <c r="R51" t="n">
-        <v>20.21</v>
+        <v>22.13</v>
       </c>
       <c r="S51" t="n">
-        <v>4.65</v>
+        <v>4.22</v>
       </c>
       <c r="T51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V51" t="n">
         <v>2</v>
@@ -4504,7 +4504,7 @@
         <v>2</v>
       </c>
       <c r="X51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y51" t="n">
         <v>2</v>
@@ -4513,68 +4513,68 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6277</t>
+          <t>6579</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>20181228</v>
       </c>
       <c r="C52" t="n">
-        <v>4638222</v>
+        <v>5345112</v>
       </c>
       <c r="D52" t="n">
-        <v>2406842</v>
+        <v>4390089</v>
       </c>
       <c r="E52" t="n">
-        <v>7045064</v>
+        <v>9735201</v>
       </c>
       <c r="F52" t="n">
-        <v>2074856</v>
+        <v>1294950</v>
       </c>
       <c r="G52" t="n">
-        <v>383789</v>
+        <v>71852</v>
       </c>
       <c r="H52" t="n">
-        <v>2458645</v>
+        <v>1366802</v>
       </c>
       <c r="I52" t="n">
-        <v>4586419</v>
+        <v>8368399</v>
       </c>
       <c r="J52" t="n">
-        <v>7045064</v>
+        <v>9735201</v>
       </c>
       <c r="K52" t="n">
-        <v>1194711</v>
+        <v>1484985</v>
       </c>
       <c r="L52" t="n">
-        <v>1194711</v>
+        <v>1484985</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>1856970</v>
+        <v>934250</v>
       </c>
       <c r="O52" t="n">
-        <v>115.09</v>
+        <v>33.83</v>
       </c>
       <c r="P52" t="n">
-        <v>30.69</v>
+        <v>14.29</v>
       </c>
       <c r="Q52" t="n">
-        <v>35.9</v>
+        <v>16.11</v>
       </c>
       <c r="R52" t="n">
-        <v>58.84</v>
+        <v>30.83</v>
       </c>
       <c r="S52" t="n">
-        <v>16.05</v>
+        <v>8</v>
       </c>
       <c r="T52" t="n">
         <v>2</v>
       </c>
       <c r="U52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V52" t="n">
         <v>3</v>
@@ -4592,68 +4592,68 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6414</t>
+          <t>6591</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>20181228</v>
       </c>
       <c r="C53" t="n">
-        <v>48125111</v>
+        <v>1136718</v>
       </c>
       <c r="D53" t="n">
-        <v>26905466</v>
+        <v>249742</v>
       </c>
       <c r="E53" t="n">
-        <v>75030577</v>
+        <v>1386460</v>
       </c>
       <c r="F53" t="n">
-        <v>45172659</v>
+        <v>247087</v>
       </c>
       <c r="G53" t="n">
-        <v>3976514</v>
+        <v>253475</v>
       </c>
       <c r="H53" t="n">
-        <v>49149173</v>
+        <v>500562</v>
       </c>
       <c r="I53" t="n">
-        <v>25881404</v>
+        <v>885898</v>
       </c>
       <c r="J53" t="n">
-        <v>75030577</v>
+        <v>1386460</v>
       </c>
       <c r="K53" t="n">
-        <v>775745</v>
+        <v>237030</v>
       </c>
       <c r="L53" t="n">
-        <v>775745</v>
+        <v>237030</v>
       </c>
       <c r="M53" t="n">
-        <v>-236048</v>
+        <v>-15287</v>
       </c>
       <c r="N53" t="n">
-        <v>3604867</v>
+        <v>107938</v>
       </c>
       <c r="O53" t="n">
-        <v>55.62</v>
+        <v>-14.63</v>
       </c>
       <c r="P53" t="n">
-        <v>4.1</v>
+        <v>6.06</v>
       </c>
       <c r="Q53" t="n">
-        <v>5.23</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="R53" t="n">
-        <v>22.13</v>
+        <v>19.78</v>
       </c>
       <c r="S53" t="n">
-        <v>4.22</v>
+        <v>6.88</v>
       </c>
       <c r="T53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V53" t="n">
         <v>2</v>
@@ -4662,165 +4662,165 @@
         <v>2</v>
       </c>
       <c r="X53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6579</t>
+          <t>6669</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>20181228</v>
       </c>
       <c r="C54" t="n">
-        <v>5345112</v>
+        <v>27583370</v>
       </c>
       <c r="D54" t="n">
-        <v>4390089</v>
+        <v>620672</v>
       </c>
       <c r="E54" t="n">
-        <v>9735201</v>
+        <v>28204042</v>
       </c>
       <c r="F54" t="n">
-        <v>1294950</v>
+        <v>11834012</v>
       </c>
       <c r="G54" t="n">
-        <v>71852</v>
+        <v>5593243</v>
       </c>
       <c r="H54" t="n">
-        <v>1366802</v>
+        <v>17427255</v>
       </c>
       <c r="I54" t="n">
-        <v>8368399</v>
+        <v>10776787</v>
       </c>
       <c r="J54" t="n">
-        <v>9735201</v>
+        <v>28204042</v>
       </c>
       <c r="K54" t="n">
-        <v>1484985</v>
+        <v>1520288</v>
       </c>
       <c r="L54" t="n">
-        <v>1484985</v>
+        <v>1520288</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>934250</v>
+        <v>7093468</v>
       </c>
       <c r="O54" t="n">
-        <v>33.83</v>
+        <v>361.54</v>
       </c>
       <c r="P54" t="n">
-        <v>14.29</v>
+        <v>3.08</v>
       </c>
       <c r="Q54" t="n">
-        <v>16.11</v>
+        <v>3.92</v>
       </c>
       <c r="R54" t="n">
-        <v>30.83</v>
+        <v>5.88</v>
       </c>
       <c r="S54" t="n">
-        <v>8</v>
+        <v>3.92</v>
       </c>
       <c r="T54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6591</t>
+          <t>8114</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>20181228</v>
       </c>
       <c r="C55" t="n">
-        <v>1136718</v>
+        <v>5610392</v>
       </c>
       <c r="D55" t="n">
-        <v>249742</v>
+        <v>8505548</v>
       </c>
       <c r="E55" t="n">
-        <v>1386460</v>
+        <v>14115940</v>
       </c>
       <c r="F55" t="n">
-        <v>247087</v>
+        <v>4655502</v>
       </c>
       <c r="G55" t="n">
-        <v>253475</v>
+        <v>6333463</v>
       </c>
       <c r="H55" t="n">
-        <v>500562</v>
+        <v>10988965</v>
       </c>
       <c r="I55" t="n">
-        <v>885898</v>
+        <v>3126975</v>
       </c>
       <c r="J55" t="n">
-        <v>1386460</v>
+        <v>14115940</v>
       </c>
       <c r="K55" t="n">
-        <v>237030</v>
+        <v>749218</v>
       </c>
       <c r="L55" t="n">
-        <v>237030</v>
+        <v>749218</v>
       </c>
       <c r="M55" t="n">
-        <v>-15287</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>107938</v>
+        <v>922759</v>
       </c>
       <c r="O55" t="n">
-        <v>-14.63</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P55" t="n">
-        <v>6.06</v>
+        <v>7.7</v>
       </c>
       <c r="Q55" t="n">
-        <v>8.859999999999999</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="R55" t="n">
-        <v>19.78</v>
+        <v>32.43</v>
       </c>
       <c r="S55" t="n">
-        <v>6.88</v>
+        <v>7.2</v>
       </c>
       <c r="T55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U55" t="n">
         <v>1</v>
       </c>
       <c r="V55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W55" t="n">
         <v>2</v>
       </c>
       <c r="X55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y55" t="n">
         <v>3</v>
@@ -4829,65 +4829,65 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6669</t>
+          <t>8163</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>20181228</v>
       </c>
       <c r="C56" t="n">
-        <v>27583370</v>
+        <v>12741445</v>
       </c>
       <c r="D56" t="n">
-        <v>620672</v>
+        <v>6353987</v>
       </c>
       <c r="E56" t="n">
-        <v>28204042</v>
+        <v>19095432</v>
       </c>
       <c r="F56" t="n">
-        <v>11834012</v>
+        <v>8968442</v>
       </c>
       <c r="G56" t="n">
-        <v>5593243</v>
+        <v>684007</v>
       </c>
       <c r="H56" t="n">
-        <v>17427255</v>
+        <v>9652449</v>
       </c>
       <c r="I56" t="n">
-        <v>10776787</v>
+        <v>9442983</v>
       </c>
       <c r="J56" t="n">
-        <v>28204042</v>
+        <v>19095432</v>
       </c>
       <c r="K56" t="n">
-        <v>1520288</v>
+        <v>2800000</v>
       </c>
       <c r="L56" t="n">
-        <v>1520288</v>
+        <v>2800000</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>7093468</v>
+        <v>1934887</v>
       </c>
       <c r="O56" t="n">
-        <v>361.54</v>
+        <v>161.7</v>
       </c>
       <c r="P56" t="n">
-        <v>3.08</v>
+        <v>7.59</v>
       </c>
       <c r="Q56" t="n">
-        <v>3.92</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="R56" t="n">
-        <v>5.88</v>
+        <v>21.45</v>
       </c>
       <c r="S56" t="n">
-        <v>3.92</v>
+        <v>9.43</v>
       </c>
       <c r="T56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U56" t="n">
         <v>3</v>
@@ -4899,86 +4899,86 @@
         <v>2</v>
       </c>
       <c r="X56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>8114</t>
+          <t>8210</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>20181228</v>
       </c>
       <c r="C57" t="n">
-        <v>5610392</v>
+        <v>3717311</v>
       </c>
       <c r="D57" t="n">
-        <v>8505548</v>
+        <v>2108608</v>
       </c>
       <c r="E57" t="n">
-        <v>14115940</v>
+        <v>5825919</v>
       </c>
       <c r="F57" t="n">
-        <v>4655502</v>
+        <v>2458722</v>
       </c>
       <c r="G57" t="n">
-        <v>6333463</v>
+        <v>202217</v>
       </c>
       <c r="H57" t="n">
-        <v>10988965</v>
+        <v>2660939</v>
       </c>
       <c r="I57" t="n">
-        <v>3126975</v>
+        <v>3164980</v>
       </c>
       <c r="J57" t="n">
-        <v>14115940</v>
+        <v>5825919</v>
       </c>
       <c r="K57" t="n">
-        <v>749218</v>
+        <v>1197260</v>
       </c>
       <c r="L57" t="n">
-        <v>749218</v>
+        <v>1197260</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>922759</v>
+        <v>870732</v>
       </c>
       <c r="O57" t="n">
-        <v>0.6899999999999999</v>
+        <v>41.04</v>
       </c>
       <c r="P57" t="n">
-        <v>7.7</v>
+        <v>9.85</v>
       </c>
       <c r="Q57" t="n">
-        <v>9.390000000000001</v>
+        <v>13.35</v>
       </c>
       <c r="R57" t="n">
-        <v>32.43</v>
+        <v>26.3</v>
       </c>
       <c r="S57" t="n">
-        <v>7.2</v>
+        <v>12.75</v>
       </c>
       <c r="T57" t="n">
         <v>2</v>
       </c>
       <c r="U57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V57" t="n">
         <v>3</v>
       </c>
       <c r="W57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y57" t="n">
         <v>3</v>
@@ -4987,141 +4987,141 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>8163</t>
+          <t>9912</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>20181228</v>
       </c>
       <c r="C58" t="n">
-        <v>12741445</v>
+        <v>410979</v>
       </c>
       <c r="D58" t="n">
-        <v>6353987</v>
+        <v>406929</v>
       </c>
       <c r="E58" t="n">
-        <v>19095432</v>
+        <v>817908</v>
       </c>
       <c r="F58" t="n">
-        <v>8968442</v>
+        <v>231699</v>
       </c>
       <c r="G58" t="n">
-        <v>684007</v>
+        <v>945</v>
       </c>
       <c r="H58" t="n">
-        <v>9652449</v>
+        <v>232644</v>
       </c>
       <c r="I58" t="n">
-        <v>9442983</v>
+        <v>585264</v>
       </c>
       <c r="J58" t="n">
-        <v>19095432</v>
+        <v>817908</v>
       </c>
       <c r="K58" t="n">
-        <v>2800000</v>
+        <v>524790</v>
       </c>
       <c r="L58" t="n">
-        <v>2800000</v>
+        <v>524790</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>1934887</v>
+        <v>17094</v>
       </c>
       <c r="O58" t="n">
-        <v>161.7</v>
+        <v>40.75</v>
       </c>
       <c r="P58" t="n">
-        <v>7.59</v>
+        <v>1.62</v>
       </c>
       <c r="Q58" t="n">
-        <v>9.619999999999999</v>
+        <v>2.29</v>
       </c>
       <c r="R58" t="n">
-        <v>21.45</v>
+        <v>32.3</v>
       </c>
       <c r="S58" t="n">
-        <v>9.43</v>
+        <v>3.07</v>
       </c>
       <c r="T58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>8210</t>
+          <t>3515</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>20181228</v>
       </c>
       <c r="C59" t="n">
-        <v>3717311</v>
+        <v>8664042</v>
       </c>
       <c r="D59" t="n">
-        <v>2108608</v>
+        <v>700151</v>
       </c>
       <c r="E59" t="n">
-        <v>5825919</v>
+        <v>9364193</v>
       </c>
       <c r="F59" t="n">
-        <v>2458722</v>
+        <v>3225809</v>
       </c>
       <c r="G59" t="n">
-        <v>202217</v>
+        <v>26896</v>
       </c>
       <c r="H59" t="n">
-        <v>2660939</v>
+        <v>3252705</v>
       </c>
       <c r="I59" t="n">
-        <v>3164980</v>
+        <v>6111488</v>
       </c>
       <c r="J59" t="n">
-        <v>5825919</v>
+        <v>9364193</v>
       </c>
       <c r="K59" t="n">
-        <v>1197260</v>
+        <v>1207456</v>
       </c>
       <c r="L59" t="n">
-        <v>1197260</v>
+        <v>1207456</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>-480</v>
       </c>
       <c r="N59" t="n">
-        <v>870732</v>
+        <v>694442</v>
       </c>
       <c r="O59" t="n">
-        <v>41.04</v>
+        <v>33.97</v>
       </c>
       <c r="P59" t="n">
-        <v>9.85</v>
+        <v>5.82</v>
       </c>
       <c r="Q59" t="n">
-        <v>13.35</v>
+        <v>6.81</v>
       </c>
       <c r="R59" t="n">
-        <v>26.3</v>
+        <v>22.25</v>
       </c>
       <c r="S59" t="n">
-        <v>12.75</v>
+        <v>6.53</v>
       </c>
       <c r="T59" t="n">
         <v>2</v>
@@ -5130,95 +5130,95 @@
         <v>2</v>
       </c>
       <c r="V59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X59" t="n">
         <v>2</v>
       </c>
       <c r="Y59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>9912</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>20181228</v>
       </c>
       <c r="C60" t="n">
-        <v>410979</v>
+        <v>19033549</v>
       </c>
       <c r="D60" t="n">
-        <v>406929</v>
+        <v>29012602</v>
       </c>
       <c r="E60" t="n">
-        <v>817908</v>
+        <v>48046151</v>
       </c>
       <c r="F60" t="n">
-        <v>231699</v>
+        <v>9437584</v>
       </c>
       <c r="G60" t="n">
-        <v>945</v>
+        <v>805240</v>
       </c>
       <c r="H60" t="n">
-        <v>232644</v>
+        <v>10242824</v>
       </c>
       <c r="I60" t="n">
-        <v>585264</v>
+        <v>37803327</v>
       </c>
       <c r="J60" t="n">
-        <v>817908</v>
+        <v>48046151</v>
       </c>
       <c r="K60" t="n">
-        <v>524790</v>
+        <v>9367677</v>
       </c>
       <c r="L60" t="n">
-        <v>524790</v>
+        <v>9367677</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>-353087</v>
       </c>
       <c r="N60" t="n">
-        <v>17094</v>
+        <v>3472714</v>
       </c>
       <c r="O60" t="n">
-        <v>40.75</v>
+        <v>27.71</v>
       </c>
       <c r="P60" t="n">
-        <v>1.62</v>
+        <v>10.72</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.29</v>
+        <v>11.29</v>
       </c>
       <c r="R60" t="n">
-        <v>32.3</v>
+        <v>15.57</v>
       </c>
       <c r="S60" t="n">
-        <v>3.07</v>
+        <v>1.09</v>
       </c>
       <c r="T60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U60" t="n">
         <v>2</v>
       </c>
       <c r="V60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
